--- a/Python/Comparacao_Contours57EDG.xlsx
+++ b/Python/Comparacao_Contours57EDG.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.001" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -36,7 +35,7 @@
     <t>fourier_factor</t>
   </si>
   <si>
-    <t>fd_2Dbox</t>
+    <t>fd_2Dbox.1</t>
   </si>
   <si>
     <t>fd_1Dbox</t>
@@ -245,7 +244,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -254,24 +253,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -293,12 +275,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -309,48 +306,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -639,6228 +612,6798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="D1" view="normal" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="28.86"/>
-    <col customWidth="1" max="2" min="2" style="3" width="19.71"/>
-    <col customWidth="1" max="4" min="3" style="3" width="22.28"/>
-    <col customWidth="1" max="5" min="5" style="3" width="15"/>
-    <col customWidth="1" max="6" min="6" style="3" width="21.71"/>
-    <col customWidth="1" max="7" min="7" style="3" width="15"/>
-    <col customWidth="1" max="8" min="8" style="3" width="24.86"/>
-    <col customWidth="1" max="9" min="9" style="3" width="23.01"/>
-    <col customWidth="1" max="10" min="10" style="3" width="23.28"/>
-    <col customWidth="1" max="11" min="11" style="3" width="22.57"/>
-    <col customWidth="1" max="12" min="12" style="3" width="22.01"/>
-    <col customWidth="1" max="13" min="13" style="3" width="9.710000000000001"/>
-    <col customWidth="1" max="17" min="14" style="3" width="22.01"/>
-    <col customWidth="1" max="1012" min="18" style="3" width="8.57"/>
-    <col customWidth="1" max="1017" min="1013" style="3" width="9.140000000000001"/>
-    <col customWidth="1" max="1022" min="1018" style="3" width="8.51"/>
-    <col customWidth="1" max="1025" min="1023" style="3" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="1" width="28.85546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.7109375"/>
+    <col customWidth="1" max="4" min="3" style="1" width="22.28515625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="15"/>
+    <col customWidth="1" max="6" min="6" style="1" width="21.7109375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.28515625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="22.5703125"/>
+    <col customWidth="1" max="20" min="10" style="1" width="22"/>
+    <col customWidth="1" max="1009" min="21" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1014" min="1010" style="1" width="9.140625"/>
+    <col customWidth="1" max="1019" min="1015" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1022" min="1020" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.9" r="1" s="4" spans="1:17">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="13.9" r="1" s="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="2" s="4" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="2" s="1" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.101611134687057</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.211588335775112</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.105794167887556</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.0854561328887939</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="3" t="n">
         <v>1.08869687878365</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.21154750929905</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="3" t="n">
         <v>1.019087841222923</v>
       </c>
-      <c r="J2" s="7" t="n">
-        <v>1.107860031337408</v>
-      </c>
-      <c r="K2" s="7" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1.114489478368011</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1.104139254934797</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>0.164661</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.049462</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="N2" s="3" t="n">
         <v>0.1349</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="O2" s="3" t="n">
         <v>1.0504</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="P2" s="3" t="n">
         <v>1.0424</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="Q2" s="3" t="n">
         <v>1.0098</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="R2" s="3" t="n">
         <v>1.1529</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="3" s="4" spans="1:17">
-      <c r="A3" s="7" t="s">
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="3" s="1" spans="1:20">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.117680222185694</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.199577241626105</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.09978862081305261</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.0586009025573731</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="3" t="n">
         <v>1.09476260548048</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="3" t="n">
         <v>1.20848746911753</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="3" t="n">
         <v>1.012668678254245</v>
       </c>
-      <c r="J3" s="7" t="n">
-        <v>1.093778209647575</v>
-      </c>
-      <c r="K3" s="7" t="n">
+      <c r="J3" s="3" t="n">
+        <v>1.096718591037581</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.093877666204978</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0.192264</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.039058</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.1534</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="O3" s="3" t="n">
         <v>1.0423</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="P3" s="3" t="n">
         <v>1.0619</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="Q3" s="3" t="n">
         <v>1.0129</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="R3" s="3" t="n">
         <v>1.138</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="4" s="4" spans="1:17">
-      <c r="A4" s="7" t="s">
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="4" s="1" spans="1:20">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.0349922216494408</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.149404683681528</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.0747023418407641</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.29244339466095</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="3" t="n">
         <v>1.09422114768559</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="3" t="n">
         <v>1.28599900843616</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="3" t="n">
         <v>1.014050440989423</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <v>1.19690649975482</v>
-      </c>
-      <c r="K4" s="7" t="n">
+      <c r="J4" s="3" t="n">
+        <v>1.196842032130102</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1.195327202871708</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>0.108984</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.041676</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.1202</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="O4" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.9819</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="Q4" s="3" t="n">
         <v>1.006</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="R4" s="3" t="n">
         <v>1.0238</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="5" s="4" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="5" s="1" spans="1:20">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.0526254797770657</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.190449054007186</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.0952245270035928</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.22549694776535</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="3" t="n">
         <v>1.03895337141684</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="3" t="n">
         <v>1.27575885912803</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="3" t="n">
         <v>1.010549079324004</v>
       </c>
-      <c r="J5" s="7" t="n">
-        <v>1.142000350657289</v>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1.142002281832414</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1.147239468768369</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>0.1211</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="M5" s="3" t="n">
         <v>0.032753</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="N5" s="3" t="n">
         <v>0.1301</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="O5" s="3" t="n">
         <v>1.0545</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="P5" s="3" t="n">
         <v>1.0554</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="Q5" s="3" t="n">
         <v>1.0075</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="R5" s="3" t="n">
         <v>1.0932</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="6" s="4" spans="1:17">
-      <c r="A6" s="7" t="s">
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="6" s="1" spans="1:20">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.2373226383109</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.183282995149731</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.0916414975748652</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.0671536922454834</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.978842539353471</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="3" t="n">
         <v>1.21266717399677</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="3" t="n">
         <v>1.024759012208035</v>
       </c>
-      <c r="J6" s="7" t="n">
-        <v>1.092039630696401</v>
-      </c>
-      <c r="K6" s="7" t="n">
+      <c r="J6" s="3" t="n">
+        <v>1.088270401589996</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1.089590803097001</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>0.293885</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.084442</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.1489</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="O6" s="3" t="n">
         <v>1.0939</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.987</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1.0151</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="R6" s="3" t="n">
         <v>1.2019</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="7" s="4" spans="1:17">
-      <c r="A7" s="7" t="s">
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="7" s="1" spans="1:20">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.0895438973225449</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.195579499638419</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.09778974981920931</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.0819266438484192</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="3" t="n">
         <v>1.04582006478359</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="3" t="n">
         <v>1.20722725170811</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.018824270183857</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <v>1.129029169546049</v>
-      </c>
-      <c r="K7" s="7" t="n">
+      <c r="J7" s="3" t="n">
+        <v>1.131194245200183</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1.127287999842555</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0.172516</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.085936</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.1837</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="O7" s="3" t="n">
         <v>1.041</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="P7" s="3" t="n">
         <v>1.0462</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="Q7" s="3" t="n">
         <v>1.0145</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="R7" s="3" t="n">
         <v>1.1257</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="8" s="4" spans="1:17">
-      <c r="A8" s="7" t="s">
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="8" s="1" spans="1:20">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.0556984365873401</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.151225127418492</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.075612563709246</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.190636515617371</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="3" t="n">
         <v>1.02577107333853</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="3" t="n">
         <v>1.25861897217145</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="3" t="n">
         <v>1.018053949959049</v>
       </c>
-      <c r="J8" s="7" t="n">
-        <v>1.137442430861458</v>
-      </c>
-      <c r="K8" s="7" t="n">
+      <c r="J8" s="3" t="n">
+        <v>1.136361451216602</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1.133543176028399</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>0.134718</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.066605</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="N8" s="3" t="n">
         <v>0.1277</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="O8" s="3" t="n">
         <v>1.0539</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="P8" s="3" t="n">
         <v>1.1129</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="Q8" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="R8" s="3" t="n">
         <v>1.1002</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="9" s="4" spans="1:17">
-      <c r="A9" s="7" t="s">
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="9" s="1" spans="1:20">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.09728735016583499</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.203317689017073</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.101658844508537</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.169191956520081</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="3" t="n">
         <v>1.06004668219299</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="3" t="n">
         <v>1.21235001401658</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="3" t="n">
         <v>1.01631208347094</v>
       </c>
-      <c r="J9" s="7" t="n">
-        <v>1.075864294121474</v>
-      </c>
-      <c r="K9" s="7" t="n">
+      <c r="J9" s="3" t="n">
+        <v>1.074757534255286</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.076337178838836</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>0.156901</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="M9" s="3" t="n">
         <v>0.048622</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.1327</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="O9" s="3" t="n">
         <v>1.0331</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="P9" s="3" t="n">
         <v>1.0422</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="Q9" s="3" t="n">
         <v>1.0077</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="R9" s="3" t="n">
         <v>1.0657</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="10" s="4" spans="1:17">
-      <c r="A10" s="7" t="s">
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="10" s="1" spans="1:20">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.086309683545292</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.177558132558841</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.0887790662794203</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.10512101650238</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="3" t="n">
         <v>1.02900909711235</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="3" t="n">
         <v>1.20869311092949</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.017941130988195</v>
       </c>
-      <c r="J10" s="7" t="n">
-        <v>1.096687492005758</v>
-      </c>
-      <c r="K10" s="7" t="n">
+      <c r="J10" s="3" t="n">
+        <v>1.104075638697188</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1.103158899933173</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>0.173177</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.09168900000000001</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="N10" s="3" t="n">
         <v>0.1484</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="O10" s="3" t="n">
         <v>1.0412</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="P10" s="3" t="n">
         <v>1.1037</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="Q10" s="3" t="n">
         <v>1.0089</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="3" t="n">
         <v>1.1467</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="11" s="4" spans="1:17">
-      <c r="A11" s="7" t="s">
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="11" s="1" spans="1:20">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.455419363375891</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.422551430926442</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.211275715463221</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.333997588107323</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.235450625419617</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="3" t="n">
         <v>1.0313564530186</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="3" t="n">
         <v>1.22523810703562</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="3" t="n">
         <v>1.041772180252463</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>1.110690946798068</v>
-      </c>
-      <c r="K11" s="7" t="n">
+      <c r="J11" s="3" t="n">
+        <v>1.109372232989474</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1.112542252434727</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>0.512282</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.164396</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="N11" s="3" t="n">
         <v>0.3386</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="O11" s="3" t="n">
         <v>1.0263</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="P11" s="3" t="n">
         <v>1.0916</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="Q11" s="3" t="n">
         <v>1.0319</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="R11" s="3" t="n">
         <v>1.2199</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="12" s="4" spans="1:17">
-      <c r="A12" s="7" t="s">
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="12" s="1" spans="1:20">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.155352041119733</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.209701972048082</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.104850986024041</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="3" t="n">
         <v>1.40216589680351</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.107046663761139</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.11119949405449</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="3" t="n">
         <v>1.21998488308015</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.01956528478798</v>
       </c>
-      <c r="J12" s="7" t="n">
-        <v>1.131716435959917</v>
-      </c>
-      <c r="K12" s="7" t="n">
+      <c r="J12" s="3" t="n">
+        <v>1.132631249208518</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1.1315847811298</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>0.227223</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.07985</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="N12" s="3" t="n">
         <v>0.1918</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="O12" s="3" t="n">
         <v>1.0465</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="P12" s="3" t="n">
         <v>1.0908</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.0168</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="R12" s="3" t="n">
         <v>1.1391</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="13" s="4" spans="1:17">
-      <c r="A13" s="7" t="s">
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="13" s="1" spans="1:20">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.0555603960034313</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.22295294447206</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.11147647223603</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.0876153707504272</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.00078533821661</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="3" t="n">
         <v>1.29738644766273</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="3" t="n">
         <v>1.01432787667215</v>
       </c>
-      <c r="J13" s="7" t="n">
-        <v>1.195483226340863</v>
-      </c>
-      <c r="K13" s="7" t="n">
+      <c r="J13" s="3" t="n">
+        <v>1.201379557177431</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1.198322848433826</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>0.146445</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.070328</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="N13" s="3" t="n">
         <v>0.1617</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="O13" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="P13" s="3" t="n">
         <v>1.1053</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="Q13" s="3" t="n">
         <v>1.0094</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="R13" s="3" t="n">
         <v>1.1173</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="14" s="4" spans="1:17">
-      <c r="A14" s="7" t="s">
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="14" s="1" spans="1:20">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.100695142723597</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="3" t="n">
         <v>0.208592635386431</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.104296317693215</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="3" t="n">
         <v>1.26770776292137</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.112692475318909</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.03855209419245</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="3" t="n">
         <v>1.27289263723605</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.020835484126344</v>
       </c>
-      <c r="J14" s="7" t="n">
-        <v>1.157641236702037</v>
-      </c>
-      <c r="K14" s="7" t="n">
+      <c r="J14" s="3" t="n">
+        <v>1.160304870378802</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1.158203386092812</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>0.193754</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.126376</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.2046</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="O14" s="3" t="n">
         <v>1.0596</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="P14" s="3" t="n">
         <v>1.0951</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="Q14" s="3" t="n">
         <v>1.0204</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="R14" s="3" t="n">
         <v>1.1708</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="15" s="4" spans="1:17">
-      <c r="A15" s="7" t="s">
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="15" s="1" spans="1:20">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.0357320880225828</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="3" t="n">
         <v>0.163645064020893</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.08182253201044649</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.07668006420135499</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="3" t="n">
         <v>1.03176469269583</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="3" t="n">
         <v>1.29860793289063</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="3" t="n">
         <v>1.010038412748996</v>
       </c>
-      <c r="J15" s="7" t="n">
-        <v>1.210693882818015</v>
-      </c>
-      <c r="K15" s="7" t="n">
+      <c r="J15" s="3" t="n">
+        <v>1.214926736906114</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1.211608700245648</v>
+      </c>
+      <c r="L15" s="3" t="n">
         <v>0.117996</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.02417</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="N15" s="3" t="n">
         <v>0.1175</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="O15" s="3" t="n">
         <v>1.0575</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="P15" s="3" t="n">
         <v>0.95445</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="Q15" s="3" t="n">
         <v>1.0063</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="R15" s="3" t="n">
         <v>1.0608</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="16" s="4" spans="1:17">
-      <c r="A16" s="7" t="s">
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="16" s="1" spans="1:20">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.0326101356273714</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="3" t="n">
         <v>0.111989771081983</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.0559948855409917</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.0579522252082825</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.05768543916687</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="3" t="n">
         <v>1.27883513360596</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="3" t="n">
         <v>1.016422079555844</v>
       </c>
-      <c r="J16" s="7" t="n">
-        <v>1.196508073364495</v>
-      </c>
-      <c r="K16" s="7" t="n">
+      <c r="J16" s="3" t="n">
+        <v>1.192715654432834</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.190331013509802</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>0.107209</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.042299</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="N16" s="3" t="n">
         <v>0.1403</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="O16" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="P16" s="3" t="n">
         <v>1.0174</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="Q16" s="3" t="n">
         <v>1.0057</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="R16" s="3" t="n">
         <v>1.1191</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="17" s="4" spans="1:17">
-      <c r="A17" s="7" t="s">
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="17" s="1" spans="1:20">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.0882102097064475</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="3" t="n">
         <v>0.161205392822715</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="3" t="n">
         <v>0.0806026964113577</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.0562926530838013</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.03754775330655</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="3" t="n">
         <v>1.19734559845947</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="3" t="n">
         <v>1.015705057065803</v>
       </c>
-      <c r="J17" s="7" t="n">
-        <v>1.108533126411061</v>
-      </c>
-      <c r="K17" s="7" t="n">
+      <c r="J17" s="3" t="n">
+        <v>1.119363669635118</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1.104530500670351</v>
+      </c>
+      <c r="L17" s="3" t="n">
         <v>0.156121</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.123487</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="N17" s="3" t="n">
         <v>0.1478</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="O17" s="3" t="n">
         <v>1.0423</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="P17" s="3" t="n">
         <v>1.0478</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="Q17" s="3" t="n">
         <v>1.0109</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="R17" s="3" t="n">
         <v>1.1278</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="18" s="4" spans="1:17">
-      <c r="A18" s="7" t="s">
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="18" s="1" spans="1:20">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.0791730190942205</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="3" t="n">
         <v>0.173771385380778</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.086885692690389</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.477409839630127</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="3" t="n">
         <v>0.999253911440839</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="3" t="n">
         <v>1.2614690574505</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.019564334856336</v>
       </c>
-      <c r="J18" s="7" t="n">
-        <v>1.131218770674303</v>
-      </c>
-      <c r="K18" s="7" t="n">
+      <c r="J18" s="3" t="n">
+        <v>1.135903747159064</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1.1267796975154</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>0.157629</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.103867</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.1833</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="O18" s="3" t="n">
         <v>1.0667</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="P18" s="3" t="n">
         <v>1.0788</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="Q18" s="3" t="n">
         <v>1.0102</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="R18" s="3" t="n">
         <v>1.1505</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="19" s="4" spans="1:17">
-      <c r="A19" s="7" t="s">
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="19" s="1" spans="1:20">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.0331926433835382</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="3" t="n">
         <v>0.132046322109195</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.06602316105459741</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.27079051733017</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="3" t="n">
         <v>0.986746869491982</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="3" t="n">
         <v>1.29498440422855</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="3" t="n">
         <v>1.016030858815338</v>
       </c>
-      <c r="J19" s="7" t="n">
-        <v>1.203060196411001</v>
-      </c>
-      <c r="K19" s="7" t="n">
+      <c r="J19" s="3" t="n">
+        <v>1.21871924280275</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.202546527716474</v>
+      </c>
+      <c r="L19" s="3" t="n">
         <v>0.119112</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.065358</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="N19" s="3" t="n">
         <v>0.1306</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="O19" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="P19" s="3" t="n">
         <v>1.009</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="3" t="n">
         <v>1.0065</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="R19" s="3" t="n">
         <v>1.1176</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="20" s="4" spans="1:17">
-      <c r="A20" s="7" t="s">
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="20" s="1" spans="1:20">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.175312388131232</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="3" t="n">
         <v>0.285190393152825</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="3" t="n">
         <v>0.142595196576412</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.424401521682739</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.00411438860303</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.22349791725491</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="3" t="n">
         <v>1.024737845461309</v>
       </c>
-      <c r="J20" s="7" t="n">
-        <v>1.134474981659558</v>
-      </c>
-      <c r="K20" s="7" t="n">
+      <c r="J20" s="3" t="n">
+        <v>1.140892548386689</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.128855541533794</v>
+      </c>
+      <c r="L20" s="3" t="n">
         <v>0.258092</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.184672</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="N20" s="3" t="n">
         <v>0.2358</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="O20" s="3" t="n">
         <v>1.0675</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="P20" s="3" t="n">
         <v>1.1129</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="3" t="n">
         <v>1.0253</v>
       </c>
-      <c r="Q20" s="7" t="n">
+      <c r="R20" s="3" t="n">
         <v>1.1883</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="21" s="4" spans="1:17">
-      <c r="A21" s="7" t="s">
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="21" s="1" spans="1:20">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.102056849292517</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="3" t="n">
         <v>0.22417104566647</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="3" t="n">
         <v>0.112085522833235</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.358682811260223</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="3" t="n">
         <v>1.02704329622995</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="3" t="n">
         <v>1.22330187605725</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="3" t="n">
         <v>1.018955333749567</v>
       </c>
-      <c r="J21" s="7" t="n">
-        <v>1.125230699266321</v>
-      </c>
-      <c r="K21" s="7" t="n">
+      <c r="J21" s="3" t="n">
+        <v>1.1319520762593</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.126306727725117</v>
+      </c>
+      <c r="L21" s="3" t="n">
         <v>0.199853</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.118254</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="N21" s="3" t="n">
         <v>0.1988</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="O21" s="3" t="n">
         <v>1.0514</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="P21" s="3" t="n">
         <v>1.0936</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="Q21" s="3" t="n">
         <v>1.0216</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="R21" s="3" t="n">
         <v>1.1596</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="22" s="4" spans="1:17">
-      <c r="A22" s="7" t="s">
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="22" s="1" spans="1:20">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.06792514933411779</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="3" t="n">
         <v>0.177938053006102</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.08896902650305109</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.0689435601234436</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.00449189061055</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="3" t="n">
         <v>1.2503861420159</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="3" t="n">
         <v>1.017980332291866</v>
       </c>
-      <c r="J22" s="7" t="n">
-        <v>1.125478932635155</v>
-      </c>
-      <c r="K22" s="7" t="n">
+      <c r="J22" s="3" t="n">
+        <v>1.131390063161939</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.126586338411236</v>
+      </c>
+      <c r="L22" s="3" t="n">
         <v>0.146217</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.06458</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="N22" s="3" t="n">
         <v>0.1533</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="O22" s="3" t="n">
         <v>1.0336</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="P22" s="3" t="n">
         <v>1.0296</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="Q22" s="3" t="n">
         <v>1.0102</v>
       </c>
-      <c r="Q22" s="7" t="n">
+      <c r="R22" s="3" t="n">
         <v>1.1156</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="23" s="4" spans="1:17">
-      <c r="A23" s="7" t="s">
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="23" s="1" spans="1:20">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.991797370133105</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="3" t="n">
         <v>0.92822862378556</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.46411431189278</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="3" t="n">
         <v>1.37204415120619</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.384484589099884</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="3" t="n">
         <v>1.03946122914612</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="3" t="n">
         <v>1.34525328771144</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="3" t="n">
         <v>1.117257202710542</v>
       </c>
-      <c r="J23" s="7" t="n">
-        <v>1.232558344704461</v>
-      </c>
-      <c r="K23" s="7" t="n">
+      <c r="J23" s="3" t="n">
+        <v>1.225160376028325</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.233369807226658</v>
+      </c>
+      <c r="L23" s="3" t="n">
         <v>0.840909</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.730239</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.4477</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="O23" s="3" t="n">
         <v>1.2189</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="P23" s="3" t="n">
         <v>1.3031</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="Q23" s="3" t="n">
         <v>1.3204</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="R23" s="3" t="n">
         <v>1.5584</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="24" s="4" spans="1:17">
-      <c r="A24" s="7" t="s">
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="24" s="1" spans="1:20">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.684919621587349</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="3" t="n">
         <v>1.15974130215927</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.579870651079633</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.23196886295327</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.452122271060944</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="3" t="n">
         <v>1.09118205522415</v>
       </c>
-      <c r="H24" s="7" t="n">
+      <c r="H24" s="3" t="n">
         <v>1.30417650703637</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="3" t="n">
         <v>1.146399274299802</v>
       </c>
-      <c r="J24" s="7" t="n">
-        <v>1.230328247547164</v>
-      </c>
-      <c r="K24" s="7" t="n">
+      <c r="J24" s="3" t="n">
+        <v>1.23376519701685</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.236286323000479</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>0.830017</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="M24" s="3" t="n">
         <v>0.73467</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="N24" s="3" t="n">
         <v>0.4912</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="O24" s="3" t="n">
         <v>1.1653</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="P24" s="3" t="n">
         <v>1.2857</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="Q24" s="3" t="n">
         <v>1.2547</v>
       </c>
-      <c r="Q24" s="7" t="n">
+      <c r="R24" s="3" t="n">
         <v>1.4325</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="25" s="4" spans="1:17">
-      <c r="A25" s="7" t="s">
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="25" s="1" spans="1:20">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.215417835390912</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="3" t="n">
         <v>0.303737520580603</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.151868760290301</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.345750629901886</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="3" t="n">
         <v>0.96392500473197</v>
       </c>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="3" t="n">
         <v>1.20549290759782</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I25" s="3" t="n">
         <v>1.032451942633954</v>
       </c>
-      <c r="J25" s="7" t="n">
-        <v>1.102924862191234</v>
-      </c>
-      <c r="K25" s="7" t="n">
+      <c r="J25" s="3" t="n">
+        <v>1.102995259125444</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1.102060343868008</v>
+      </c>
+      <c r="L25" s="3" t="n">
         <v>0.28192</v>
       </c>
-      <c r="L25" s="7" t="n">
+      <c r="M25" s="3" t="n">
         <v>0.274553</v>
       </c>
-      <c r="M25" s="7" t="n">
+      <c r="N25" s="3" t="n">
         <v>0.2419</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="O25" s="3" t="n">
         <v>1.0624</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="P25" s="3" t="n">
         <v>1.0194</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="Q25" s="3" t="n">
         <v>1.0119</v>
       </c>
-      <c r="Q25" s="7" t="n">
+      <c r="R25" s="3" t="n">
         <v>1.0857</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="26" s="4" spans="1:17">
-      <c r="A26" s="7" t="s">
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="26" s="1" spans="1:20">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.367644560610751</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="3" t="n">
         <v>0.573813056463816</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.286906528231908</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="3" t="n">
         <v>1.32077020438351</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.471260607242584</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="3" t="n">
         <v>1.04938624800978</v>
       </c>
-      <c r="H26" s="7" t="n">
+      <c r="H26" s="3" t="n">
         <v>1.24346988775409</v>
       </c>
-      <c r="I26" s="7" t="n">
+      <c r="I26" s="3" t="n">
         <v>1.068495239675684</v>
       </c>
-      <c r="J26" s="7" t="n">
-        <v>1.186452091025416</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="J26" s="3" t="n">
+        <v>1.184831548195652</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1.185475603154936</v>
+      </c>
+      <c r="L26" s="3" t="n">
         <v>0.623309</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="M26" s="3" t="n">
         <v>0.5708</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="N26" s="3" t="n">
         <v>0.353</v>
       </c>
-      <c r="N26" s="7" t="n">
+      <c r="O26" s="3" t="n">
         <v>1.1053</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="P26" s="3" t="n">
         <v>1.2162</v>
       </c>
-      <c r="P26" s="7" t="n">
+      <c r="Q26" s="3" t="n">
         <v>1.1299</v>
       </c>
-      <c r="Q26" s="7" t="n">
+      <c r="R26" s="3" t="n">
         <v>1.2877</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="27" s="4" spans="1:17">
-      <c r="A27" s="7" t="s">
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="27" s="1" spans="1:20">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.348196328367065</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="3" t="n">
         <v>0.613186584678471</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.306593292339235</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="3" t="n">
         <v>1.41963468769606</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.291202902793884</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="3" t="n">
         <v>1.04186639162681</v>
       </c>
-      <c r="H27" s="7" t="n">
+      <c r="H27" s="3" t="n">
         <v>1.33330186527719</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="3" t="n">
         <v>1.068417440411303</v>
       </c>
-      <c r="J27" s="7" t="n">
-        <v>1.221029384147272</v>
-      </c>
-      <c r="K27" s="7" t="n">
+      <c r="J27" s="3" t="n">
+        <v>1.221445317299187</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1.225225427154108</v>
+      </c>
+      <c r="L27" s="3" t="n">
         <v>0.546529</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.489224</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="N27" s="3" t="n">
         <v>0.3691</v>
       </c>
-      <c r="N27" s="7" t="n">
+      <c r="O27" s="3" t="n">
         <v>1.1257</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="P27" s="3" t="n">
         <v>1.2715</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="Q27" s="3" t="n">
         <v>1.1682</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="R27" s="3" t="n">
         <v>1.3916</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="28" s="4" spans="1:17">
-      <c r="A28" s="7" t="s">
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="28" s="1" spans="1:20">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.756784664860123</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="3" t="n">
         <v>1.4347172254128</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="3" t="n">
         <v>0.717358612706398</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="3" t="n">
         <v>1.60929555476765</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.2500079870224</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.16603690244811</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="3" t="n">
         <v>1.25774591104919</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="3" t="n">
         <v>1.140577398462693</v>
       </c>
-      <c r="J28" s="7" t="n">
-        <v>1.180900989862455</v>
-      </c>
-      <c r="K28" s="7" t="n">
+      <c r="J28" s="3" t="n">
+        <v>1.180126018466229</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1.180953465676563</v>
+      </c>
+      <c r="L28" s="3" t="n">
         <v>0.874788</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="M28" s="3" t="n">
         <v>0.742903</v>
       </c>
-      <c r="M28" s="7" t="n">
+      <c r="N28" s="3" t="n">
         <v>0.4781</v>
       </c>
-      <c r="N28" s="7" t="n">
+      <c r="O28" s="3" t="n">
         <v>1.2301</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="P28" s="3" t="n">
         <v>1.2662</v>
       </c>
-      <c r="P28" s="7" t="n">
+      <c r="Q28" s="3" t="n">
         <v>1.3113</v>
       </c>
-      <c r="Q28" s="7" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.5305</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="29" s="4" spans="1:17">
-      <c r="A29" s="7" t="s">
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="29" s="1" spans="1:20">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.827007222340928</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="3" t="n">
         <v>1.55069420869757</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="3" t="n">
         <v>0.775347104348784</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="3" t="n">
         <v>0.819919704171417</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.526247024536133</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="3" t="n">
         <v>1.24075715811337</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="3" t="n">
         <v>1.39538532702322</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="3" t="n">
         <v>1.164570071292655</v>
       </c>
-      <c r="J29" s="7" t="n">
-        <v>1.198881473456899</v>
-      </c>
-      <c r="K29" s="7" t="n">
+      <c r="J29" s="3" t="n">
+        <v>1.206125726604927</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1.202716587632753</v>
+      </c>
+      <c r="L29" s="3" t="n">
         <v>0.892909</v>
       </c>
-      <c r="L29" s="7" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.7276820000000001</v>
       </c>
-      <c r="M29" s="7" t="n">
+      <c r="N29" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="N29" s="7" t="n">
+      <c r="O29" s="3" t="n">
         <v>1.235</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="P29" s="3" t="n">
         <v>1.3497</v>
       </c>
-      <c r="P29" s="7" t="n">
+      <c r="Q29" s="3" t="n">
         <v>1.3954</v>
       </c>
-      <c r="Q29" s="7" t="n">
+      <c r="R29" s="3" t="n">
         <v>1.6324</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="30" s="4" spans="1:17">
-      <c r="A30" s="7" t="s">
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="30" s="1" spans="1:20">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.928864611871131</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="3" t="n">
         <v>1.71166744613814</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="3" t="n">
         <v>0.85583372306907</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="3" t="n">
         <v>1.05361829717156</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.529368579387665</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.18950206966734</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="3" t="n">
         <v>1.41079001763194</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="3" t="n">
         <v>1.202237313466385</v>
       </c>
-      <c r="J30" s="7" t="n">
-        <v>1.190083783531284</v>
-      </c>
-      <c r="K30" s="7" t="n">
+      <c r="J30" s="3" t="n">
+        <v>1.184933949825489</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1.189953076294361</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>0.986097</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.614686</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="N30" s="3" t="n">
         <v>0.6996</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="O30" s="3" t="n">
         <v>1.4454</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="P30" s="3" t="n">
         <v>1.4893</v>
       </c>
-      <c r="P30" s="7" t="n">
+      <c r="Q30" s="3" t="n">
         <v>1.7286</v>
       </c>
-      <c r="Q30" s="7" t="n">
+      <c r="R30" s="3" t="n">
         <v>1.4917</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="31" s="4" spans="1:17">
-      <c r="A31" s="7" t="s">
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="31" s="1" spans="1:20">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.787915945966388</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="3" t="n">
         <v>1.43767541951031</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="3" t="n">
         <v>0.718837709755154</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="3" t="n">
         <v>1.44253178316229</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.419887900352478</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.21671439184381</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="3" t="n">
         <v>1.36958568504969</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="3" t="n">
         <v>1.117085473562057</v>
       </c>
-      <c r="J31" s="7" t="n">
-        <v>1.171910043068689</v>
-      </c>
-      <c r="K31" s="7" t="n">
+      <c r="J31" s="3" t="n">
+        <v>1.17097880172687</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.173152859593159</v>
+      </c>
+      <c r="L31" s="3" t="n">
         <v>0.9574279999999999</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.800991</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="N31" s="3" t="n">
         <v>0.6014</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="O31" s="3" t="n">
         <v>1.3235</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="P31" s="3" t="n">
         <v>1.3818</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="Q31" s="3" t="n">
         <v>1.4904</v>
       </c>
-      <c r="Q31" s="7" t="n">
+      <c r="R31" s="3" t="n">
         <v>1.5091</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="32" s="4" spans="1:17">
-      <c r="A32" s="7" t="s">
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="32" s="1" spans="1:20">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.458712206130689</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="3" t="n">
         <v>0.750282471919323</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="3" t="n">
         <v>0.375141235959662</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="3" t="n">
         <v>1.62523700250479</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.230719745159149</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="3" t="n">
         <v>1.10130886782611</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="3" t="n">
         <v>1.27493153354921</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.064738407662591</v>
       </c>
-      <c r="J32" s="7" t="n">
-        <v>1.219383182435947</v>
-      </c>
-      <c r="K32" s="7" t="n">
+      <c r="J32" s="3" t="n">
+        <v>1.223965667431282</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1.220220617467908</v>
+      </c>
+      <c r="L32" s="3" t="n">
         <v>0.611714</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="M32" s="3" t="n">
         <v>0.42632</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="N32" s="3" t="n">
         <v>0.3688</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="O32" s="3" t="n">
         <v>1.1111</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="P32" s="3" t="n">
         <v>1.2521</v>
       </c>
-      <c r="P32" s="7" t="n">
+      <c r="Q32" s="3" t="n">
         <v>1.123</v>
       </c>
-      <c r="Q32" s="7" t="n">
+      <c r="R32" s="3" t="n">
         <v>1.5214</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="33" s="4" spans="1:17">
-      <c r="A33" s="7" t="s">
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="33" s="1" spans="1:20">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.923420726300442</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="3" t="n">
         <v>1.70027419622888</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="3" t="n">
         <v>0.8501370981144371</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="3" t="n">
         <v>1.58841235804476</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.427261829376221</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.18090532667039</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="3" t="n">
         <v>1.40998449218596</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="3" t="n">
         <v>1.202314041653407</v>
       </c>
-      <c r="J33" s="7" t="n">
-        <v>1.163802894655892</v>
-      </c>
-      <c r="K33" s="7" t="n">
+      <c r="J33" s="3" t="n">
+        <v>1.168497991406868</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1.170527702018211</v>
+      </c>
+      <c r="L33" s="3" t="n">
         <v>0.978085</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="M33" s="3" t="n">
         <v>0.73763</v>
       </c>
-      <c r="M33" s="7" t="n">
+      <c r="N33" s="3" t="n">
         <v>0.6365</v>
       </c>
-      <c r="N33" s="7" t="n">
+      <c r="O33" s="3" t="n">
         <v>1.4123</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="P33" s="3" t="n">
         <v>1.4712</v>
       </c>
-      <c r="P33" s="7" t="n">
+      <c r="Q33" s="3" t="n">
         <v>1.5125</v>
       </c>
-      <c r="Q33" s="7" t="n">
+      <c r="R33" s="3" t="n">
         <v>1.5571</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="34" s="4" spans="1:17">
-      <c r="A34" s="7" t="s">
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="34" s="1" spans="1:20">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.819319052112418</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="3" t="n">
         <v>1.51583772920384</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="3" t="n">
         <v>0.75791886460192</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="3" t="n">
         <v>1.05640526885443</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.583231925964356</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.19433385582832</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="3" t="n">
         <v>1.39380745800545</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.193406530554156</v>
       </c>
-      <c r="J34" s="7" t="n">
-        <v>1.24692433730507</v>
-      </c>
-      <c r="K34" s="7" t="n">
+      <c r="J34" s="3" t="n">
+        <v>1.239349098194548</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1.236954056870145</v>
+      </c>
+      <c r="L34" s="3" t="n">
         <v>0.9160239999999999</v>
       </c>
-      <c r="L34" s="7" t="n">
+      <c r="M34" s="3" t="n">
         <v>0.85323</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="N34" s="3" t="n">
         <v>0.5548999999999999</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="O34" s="3" t="n">
         <v>1.2678</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="P34" s="3" t="n">
         <v>1.3787</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="Q34" s="3" t="n">
         <v>1.448</v>
       </c>
-      <c r="Q34" s="7" t="n">
+      <c r="R34" s="3" t="n">
         <v>1.4181</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="35" s="4" spans="1:17">
-      <c r="A35" s="7" t="s">
+      <c r="S34" s="3" t="n"/>
+      <c r="T34" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="35" s="1" spans="1:20">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.7619262079935309</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="3" t="n">
         <v>1.34777951257956</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="3" t="n">
         <v>0.673889756289781</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="3" t="n">
         <v>0.648159753263985</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.620980381965637</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="3" t="n">
         <v>1.16264442899085</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="3" t="n">
         <v>1.32557279377613</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="3" t="n">
         <v>1.131253212569301</v>
       </c>
-      <c r="J35" s="7" t="n">
-        <v>1.213196364291336</v>
-      </c>
-      <c r="K35" s="7" t="n">
+      <c r="J35" s="3" t="n">
+        <v>1.205205615106802</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1.214805792923373</v>
+      </c>
+      <c r="L35" s="3" t="n">
         <v>0.866406</v>
       </c>
-      <c r="L35" s="7" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.774961</v>
       </c>
-      <c r="M35" s="7" t="n">
+      <c r="N35" s="3" t="n">
         <v>0.516</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="O35" s="3" t="n">
         <v>1.1887</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="P35" s="3" t="n">
         <v>1.2503</v>
       </c>
-      <c r="P35" s="7" t="n">
+      <c r="Q35" s="3" t="n">
         <v>1.3195</v>
       </c>
-      <c r="Q35" s="7" t="n">
+      <c r="R35" s="3" t="n">
         <v>1.4243</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="36" s="4" spans="1:17">
-      <c r="A36" s="7" t="s">
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="36" s="1" spans="1:20">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.539486170338953</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="3" t="n">
         <v>0.898556821561599</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.449278410780799</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.737157636180145</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.274060964584351</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="3" t="n">
         <v>1.12397964041244</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="H36" s="3" t="n">
         <v>1.28772853844549</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="3" t="n">
         <v>1.076709684942919</v>
       </c>
-      <c r="J36" s="7" t="n">
-        <v>1.183148489799655</v>
-      </c>
-      <c r="K36" s="7" t="n">
+      <c r="J36" s="3" t="n">
+        <v>1.190371730028972</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1.190408114818492</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>0.7553800000000001</v>
       </c>
-      <c r="L36" s="7" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.443559</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="N36" s="3" t="n">
         <v>0.4039</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="O36" s="3" t="n">
         <v>1.1597</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="P36" s="3" t="n">
         <v>1.2016</v>
       </c>
-      <c r="P36" s="7" t="n">
+      <c r="Q36" s="3" t="n">
         <v>1.1954</v>
       </c>
-      <c r="Q36" s="7" t="n">
+      <c r="R36" s="3" t="n">
         <v>1.3998</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="37" s="4" spans="1:17">
-      <c r="A37" s="7" t="s">
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="37" s="1" spans="1:20">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.881761419602623</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="3" t="n">
         <v>1.70728543037034</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.85364271518517</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="3" t="n">
         <v>0.95476722198293</v>
       </c>
-      <c r="F37" s="7" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.401062309741974</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.28101473248604</v>
       </c>
-      <c r="H37" s="7" t="n">
+      <c r="H37" s="3" t="n">
         <v>1.37330109672484</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="I37" s="3" t="n">
         <v>1.150483931653307</v>
       </c>
-      <c r="J37" s="7" t="n">
-        <v>1.220030576957525</v>
-      </c>
-      <c r="K37" s="7" t="n">
+      <c r="J37" s="3" t="n">
+        <v>1.214072630901933</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1.213498034267487</v>
+      </c>
+      <c r="L37" s="3" t="n">
         <v>0.93923</v>
       </c>
-      <c r="L37" s="7" t="n">
+      <c r="M37" s="3" t="n">
         <v>0.625335</v>
       </c>
-      <c r="M37" s="7" t="n">
+      <c r="N37" s="3" t="n">
         <v>0.5962</v>
       </c>
-      <c r="N37" s="7" t="n">
+      <c r="O37" s="3" t="n">
         <v>1.3221</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="P37" s="3" t="n">
         <v>1.2942</v>
       </c>
-      <c r="P37" s="7" t="n">
+      <c r="Q37" s="3" t="n">
         <v>1.4153</v>
       </c>
-      <c r="Q37" s="7" t="n">
+      <c r="R37" s="3" t="n">
         <v>1.3739</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="38" s="4" spans="1:17">
-      <c r="A38" s="7" t="s">
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="38" s="1" spans="1:20">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.0552225057170562</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="3" t="n">
         <v>0.12003909916733</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.060019549583665</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="7" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.259567975997925</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.08322160326843</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="H38" s="3" t="n">
         <v>1.20863061859582</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I38" s="3" t="n">
         <v>1.016115395619386</v>
       </c>
-      <c r="J38" s="7" t="n">
-        <v>1.112720887943353</v>
-      </c>
-      <c r="K38" s="7" t="n">
+      <c r="J38" s="3" t="n">
+        <v>1.115866486951863</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1.117220439138163</v>
+      </c>
+      <c r="L38" s="3" t="n">
         <v>0.131583</v>
       </c>
-      <c r="L38" s="7" t="n">
+      <c r="M38" s="3" t="n">
         <v>0.042846</v>
       </c>
-      <c r="M38" s="7" t="n">
+      <c r="N38" s="3" t="n">
         <v>0.1387</v>
       </c>
-      <c r="N38" s="7" t="n">
+      <c r="O38" s="3" t="n">
         <v>1.0331</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="P38" s="3" t="n">
         <v>1.0275</v>
       </c>
-      <c r="P38" s="7" t="n">
+      <c r="Q38" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q38" s="7" t="n">
+      <c r="R38" s="3" t="n">
         <v>1.0838</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="39" s="4" spans="1:17">
-      <c r="A39" s="7" t="s">
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="39" s="1" spans="1:20">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.127218869006716</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="3" t="n">
         <v>0.215586091779411</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.107793045889705</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="3" t="n">
         <v>1.63903505581743</v>
       </c>
-      <c r="F39" s="7" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.334420204162598</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="3" t="n">
         <v>0.987611198075995</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="3" t="n">
         <v>1.26179350330251</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="3" t="n">
         <v>1.01814416580427</v>
       </c>
-      <c r="J39" s="7" t="n">
-        <v>1.153388727588826</v>
-      </c>
-      <c r="K39" s="7" t="n">
+      <c r="J39" s="3" t="n">
+        <v>1.149543450762176</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1.152254778698655</v>
+      </c>
+      <c r="L39" s="3" t="n">
         <v>0.233445</v>
       </c>
-      <c r="L39" s="7" t="n">
+      <c r="M39" s="3" t="n">
         <v>0.083718</v>
       </c>
-      <c r="M39" s="7" t="n">
+      <c r="N39" s="3" t="n">
         <v>0.2058</v>
       </c>
-      <c r="N39" s="7" t="n">
+      <c r="O39" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="P39" s="3" t="n">
         <v>1.0713</v>
       </c>
-      <c r="P39" s="7" t="n">
+      <c r="Q39" s="3" t="n">
         <v>1.0223</v>
       </c>
-      <c r="Q39" s="7" t="n">
+      <c r="R39" s="3" t="n">
         <v>1.252</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="40" s="4" spans="1:17">
-      <c r="A40" s="7" t="s">
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="40" s="1" spans="1:20">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.08772295611351059</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="3" t="n">
         <v>0.223093244489105</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="3" t="n">
         <v>0.111546622244552</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.115725815296173</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.10842499931233</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="3" t="n">
         <v>1.21749631496461</v>
       </c>
-      <c r="I40" s="7" t="n">
+      <c r="I40" s="3" t="n">
         <v>1.014229524958262</v>
       </c>
-      <c r="J40" s="7" t="n">
-        <v>1.130118660181296</v>
-      </c>
-      <c r="K40" s="7" t="n">
+      <c r="J40" s="3" t="n">
+        <v>1.126280935742146</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1.129864271631861</v>
+      </c>
+      <c r="L40" s="3" t="n">
         <v>0.174751</v>
       </c>
-      <c r="L40" s="7" t="n">
+      <c r="M40" s="3" t="n">
         <v>0.094885</v>
       </c>
-      <c r="M40" s="7" t="n">
+      <c r="N40" s="3" t="n">
         <v>0.1662</v>
       </c>
-      <c r="N40" s="7" t="n">
+      <c r="O40" s="3" t="n">
         <v>1.0466</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="P40" s="3" t="n">
         <v>1.0433</v>
       </c>
-      <c r="P40" s="7" t="n">
+      <c r="Q40" s="3" t="n">
         <v>1.0173</v>
       </c>
-      <c r="Q40" s="7" t="n">
+      <c r="R40" s="3" t="n">
         <v>1.141</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="41" s="4" spans="1:17">
-      <c r="A41" s="7" t="s">
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="41" s="1" spans="1:20">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.0721714630566217</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="3" t="n">
         <v>0.178794679302938</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="3" t="n">
         <v>0.0893973396514688</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.494748950004578</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="3" t="n">
         <v>0.972308771136518</v>
       </c>
-      <c r="H41" s="7" t="n">
+      <c r="H41" s="3" t="n">
         <v>1.22464179038121</v>
       </c>
-      <c r="I41" s="7" t="n">
+      <c r="I41" s="3" t="n">
         <v>1.011796392460131</v>
       </c>
-      <c r="J41" s="7" t="n">
-        <v>1.071980753064753</v>
-      </c>
-      <c r="K41" s="7" t="n">
+      <c r="J41" s="3" t="n">
+        <v>1.071253439883521</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1.071952774343243</v>
+      </c>
+      <c r="L41" s="3" t="n">
         <v>0.150069</v>
       </c>
-      <c r="L41" s="7" t="n">
+      <c r="M41" s="3" t="n">
         <v>0.054651</v>
       </c>
-      <c r="M41" s="7" t="n">
+      <c r="N41" s="3" t="n">
         <v>0.1347</v>
       </c>
-      <c r="N41" s="7" t="n">
+      <c r="O41" s="3" t="n">
         <v>1.0418</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="P41" s="3" t="n">
         <v>1.0158</v>
       </c>
-      <c r="P41" s="7" t="n">
+      <c r="Q41" s="3" t="n">
         <v>1.0081</v>
       </c>
-      <c r="Q41" s="7" t="n">
+      <c r="R41" s="3" t="n">
         <v>1.088</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="42" s="4" spans="1:17">
-      <c r="A42" s="7" t="s">
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="42" s="1" spans="1:20">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.593874396536505</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="3" t="n">
         <v>0.946030818533938</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="3" t="n">
         <v>0.473015409266969</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="3" t="n">
         <v>1.03705833322431</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="3" t="n">
         <v>0.503342509269714</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="3" t="n">
         <v>1.10348218101943</v>
       </c>
-      <c r="H42" s="7" t="n">
+      <c r="H42" s="3" t="n">
         <v>1.24434420041023</v>
       </c>
-      <c r="I42" s="7" t="n">
+      <c r="I42" s="3" t="n">
         <v>1.078375736532182</v>
       </c>
-      <c r="J42" s="7" t="n">
-        <v>1.181741092604998</v>
-      </c>
-      <c r="K42" s="7" t="n">
+      <c r="J42" s="3" t="n">
+        <v>1.185289160289285</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1.184052156675191</v>
+      </c>
+      <c r="L42" s="3" t="n">
         <v>0.808068</v>
       </c>
-      <c r="L42" s="7" t="n">
+      <c r="M42" s="3" t="n">
         <v>0.586549</v>
       </c>
-      <c r="M42" s="7" t="n">
+      <c r="N42" s="3" t="n">
         <v>0.423</v>
       </c>
-      <c r="N42" s="7" t="n">
+      <c r="O42" s="3" t="n">
         <v>1.1729</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="P42" s="3" t="n">
         <v>1.2063</v>
       </c>
-      <c r="P42" s="7" t="n">
+      <c r="Q42" s="3" t="n">
         <v>1.1598</v>
       </c>
-      <c r="Q42" s="7" t="n">
+      <c r="R42" s="3" t="n">
         <v>1.3933</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="43" s="4" spans="1:17">
-      <c r="A43" s="7" t="s">
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="43" s="1" spans="1:20">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.0624738925586859</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="3" t="n">
         <v>0.161638123441857</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="3" t="n">
         <v>0.08081906172092861</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="F43" s="3" t="n">
         <v>0.111783087253571</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="3" t="n">
         <v>1.11847071800735</v>
       </c>
-      <c r="H43" s="7" t="n">
+      <c r="H43" s="3" t="n">
         <v>1.21898028234805</v>
       </c>
-      <c r="I43" s="7" t="n">
+      <c r="I43" s="3" t="n">
         <v>1.009273472686627</v>
       </c>
-      <c r="J43" s="7" t="n">
-        <v>1.115377724644218</v>
-      </c>
-      <c r="K43" s="7" t="n">
+      <c r="J43" s="3" t="n">
+        <v>1.112968817439149</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>1.114325979653251</v>
+      </c>
+      <c r="L43" s="3" t="n">
         <v>0.141318</v>
       </c>
-      <c r="L43" s="7" t="n">
+      <c r="M43" s="3" t="n">
         <v>0.045588</v>
       </c>
-      <c r="M43" s="7" t="n">
+      <c r="N43" s="3" t="n">
         <v>0.1212</v>
       </c>
-      <c r="N43" s="7" t="n">
+      <c r="O43" s="3" t="n">
         <v>1.0399</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="P43" s="3" t="n">
         <v>1.0276</v>
       </c>
-      <c r="P43" s="7" t="n">
+      <c r="Q43" s="3" t="n">
         <v>1.0089</v>
       </c>
-      <c r="Q43" s="7" t="n">
+      <c r="R43" s="3" t="n">
         <v>1.0481</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="44" s="4" spans="1:17">
-      <c r="A44" s="7" t="s">
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="44" s="1" spans="1:20">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.0565623891328837</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="3" t="n">
         <v>0.214824397816973</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.107412198908487</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="7" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.0699719190597534</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.98883718664944</v>
       </c>
-      <c r="H44" s="7" t="n">
+      <c r="H44" s="3" t="n">
         <v>1.29194907102169</v>
       </c>
-      <c r="I44" s="7" t="n">
+      <c r="I44" s="3" t="n">
         <v>1.018205797735634</v>
       </c>
-      <c r="J44" s="7" t="n">
-        <v>1.1738470608954</v>
-      </c>
-      <c r="K44" s="7" t="n">
+      <c r="J44" s="3" t="n">
+        <v>1.180586517868475</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>1.17309023837437</v>
+      </c>
+      <c r="L44" s="3" t="n">
         <v>0.134147</v>
       </c>
-      <c r="L44" s="7" t="n">
+      <c r="M44" s="3" t="n">
         <v>0.108722</v>
       </c>
-      <c r="M44" s="7" t="n">
+      <c r="N44" s="3" t="n">
         <v>0.1524</v>
       </c>
-      <c r="N44" s="7" t="n">
+      <c r="O44" s="3" t="n">
         <v>1.0679</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="P44" s="3" t="n">
         <v>1.0353</v>
       </c>
-      <c r="P44" s="7" t="n">
+      <c r="Q44" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q44" s="7" t="n">
+      <c r="R44" s="3" t="n">
         <v>1.1297</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="45" s="4" spans="1:17">
-      <c r="A45" s="7" t="s">
+      <c r="S44" s="3" t="n"/>
+      <c r="T44" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="45" s="1" spans="1:20">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.201391239955721</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="3" t="n">
         <v>0.265777482817206</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.132888741408603</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="7" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.263002276420593</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="3" t="n">
         <v>1.10415307119348</v>
       </c>
-      <c r="H45" s="7" t="n">
+      <c r="H45" s="3" t="n">
         <v>1.18562756901132</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="3" t="n">
         <v>1.018108916279422</v>
       </c>
-      <c r="J45" s="7" t="n">
-        <v>1.10528640832417</v>
-      </c>
-      <c r="K45" s="7" t="n">
+      <c r="J45" s="3" t="n">
+        <v>1.113642939198422</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>1.110769419931111</v>
+      </c>
+      <c r="L45" s="3" t="n">
         <v>0.267678</v>
       </c>
-      <c r="L45" s="7" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.090306</v>
       </c>
-      <c r="M45" s="7" t="n">
+      <c r="N45" s="3" t="n">
         <v>0.2045</v>
       </c>
-      <c r="N45" s="7" t="n">
+      <c r="O45" s="3" t="n">
         <v>1.0595</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="P45" s="3" t="n">
         <v>0.99199</v>
       </c>
-      <c r="P45" s="7" t="n">
+      <c r="Q45" s="3" t="n">
         <v>1.0164</v>
       </c>
-      <c r="Q45" s="7" t="n">
+      <c r="R45" s="3" t="n">
         <v>1.1512</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="46" s="4" spans="1:17">
-      <c r="A46" s="7" t="s">
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="46" s="1" spans="1:20">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.0755462193117131</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="3" t="n">
         <v>0.276605984724226</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="3" t="n">
         <v>0.138302992362113</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="7" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.139906287193298</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="3" t="n">
         <v>1.08301667462867</v>
       </c>
-      <c r="H46" s="7" t="n">
+      <c r="H46" s="3" t="n">
         <v>1.26006357779772</v>
       </c>
-      <c r="I46" s="7" t="n">
+      <c r="I46" s="3" t="n">
         <v>1.019304420103688</v>
       </c>
-      <c r="J46" s="7" t="n">
-        <v>1.159966336221842</v>
-      </c>
-      <c r="K46" s="7" t="n">
+      <c r="J46" s="3" t="n">
+        <v>1.151544790521967</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>1.150302369245377</v>
+      </c>
+      <c r="L46" s="3" t="n">
         <v>0.147177</v>
       </c>
-      <c r="L46" s="7" t="n">
+      <c r="M46" s="3" t="n">
         <v>0.057561</v>
       </c>
-      <c r="M46" s="7" t="n">
+      <c r="N46" s="3" t="n">
         <v>0.151</v>
       </c>
-      <c r="N46" s="7" t="n">
+      <c r="O46" s="3" t="n">
         <v>1.0461</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="P46" s="3" t="n">
         <v>1.0955</v>
       </c>
-      <c r="P46" s="7" t="n">
+      <c r="Q46" s="3" t="n">
         <v>1.0096</v>
       </c>
-      <c r="Q46" s="7" t="n">
+      <c r="R46" s="3" t="n">
         <v>1.1423</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="47" s="4" spans="1:17">
-      <c r="A47" s="7" t="s">
+      <c r="S46" s="3" t="n"/>
+      <c r="T46" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="47" s="1" spans="1:20">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.0428377592930522</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="3" t="n">
         <v>0.177866077299014</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="3" t="n">
         <v>0.0889330386495069</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="7" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.050214946269989</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="3" t="n">
         <v>1.06172299030761</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="3" t="n">
         <v>1.28099317059036</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="3" t="n">
         <v>1.014259418310111</v>
       </c>
-      <c r="J47" s="7" t="n">
-        <v>1.175097102970485</v>
-      </c>
-      <c r="K47" s="7" t="n">
+      <c r="J47" s="3" t="n">
+        <v>1.182045150955534</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>1.180860410915865</v>
+      </c>
+      <c r="L47" s="3" t="n">
         <v>0.115568</v>
       </c>
-      <c r="L47" s="7" t="n">
+      <c r="M47" s="3" t="n">
         <v>0.052385</v>
       </c>
-      <c r="M47" s="7" t="n">
+      <c r="N47" s="3" t="n">
         <v>0.129</v>
       </c>
-      <c r="N47" s="7" t="n">
+      <c r="O47" s="3" t="n">
         <v>1.0736</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="P47" s="3" t="n">
         <v>1.0134</v>
       </c>
-      <c r="P47" s="7" t="n">
+      <c r="Q47" s="3" t="n">
         <v>1.0078</v>
       </c>
-      <c r="Q47" s="7" t="n">
+      <c r="R47" s="3" t="n">
         <v>1.1266</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="48" s="4" spans="1:17">
-      <c r="A48" s="7" t="s">
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="48" s="1" spans="1:20">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.07166437956323921</v>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="3" t="n">
         <v>0.130408461020301</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="3" t="n">
         <v>0.0652042305101506</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="7" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.350369155406952</v>
       </c>
-      <c r="G48" s="7" t="n">
+      <c r="G48" s="3" t="n">
         <v>1.0514875468763</v>
       </c>
-      <c r="H48" s="7" t="n">
+      <c r="H48" s="3" t="n">
         <v>1.25120956239102</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="3" t="n">
         <v>1.016779300497003</v>
       </c>
-      <c r="J48" s="7" t="n">
-        <v>1.159670939369027</v>
-      </c>
-      <c r="K48" s="7" t="n">
+      <c r="J48" s="3" t="n">
+        <v>1.159365391380221</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1.157439819313019</v>
+      </c>
+      <c r="L48" s="3" t="n">
         <v>0.181849</v>
       </c>
-      <c r="L48" s="7" t="n">
+      <c r="M48" s="3" t="n">
         <v>0.070202</v>
       </c>
-      <c r="M48" s="7" t="n">
+      <c r="N48" s="3" t="n">
         <v>0.1919</v>
       </c>
-      <c r="N48" s="7" t="n">
+      <c r="O48" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="P48" s="3" t="n">
         <v>1.0554</v>
       </c>
-      <c r="P48" s="7" t="n">
+      <c r="Q48" s="3" t="n">
         <v>1.0136</v>
       </c>
-      <c r="Q48" s="7" t="n">
+      <c r="R48" s="3" t="n">
         <v>1.213</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="49" s="4" spans="1:17">
-      <c r="A49" s="7" t="s">
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="49" s="1" spans="1:20">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.0645415650344088</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="3" t="n">
         <v>0.176328597310892</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="3" t="n">
         <v>0.08816429865544589</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="7" t="n">
+      <c r="F49" s="3" t="n">
         <v>0.057765543460846</v>
       </c>
-      <c r="G49" s="7" t="n">
+      <c r="G49" s="3" t="n">
         <v>1.12438995393233</v>
       </c>
-      <c r="H49" s="7" t="n">
+      <c r="H49" s="3" t="n">
         <v>1.22838193510626</v>
       </c>
-      <c r="I49" s="7" t="n">
+      <c r="I49" s="3" t="n">
         <v>1.010590919040703</v>
       </c>
-      <c r="J49" s="7" t="n">
-        <v>1.127686980027081</v>
-      </c>
-      <c r="K49" s="7" t="n">
+      <c r="J49" s="3" t="n">
+        <v>1.124609963555988</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1.121488606450235</v>
+      </c>
+      <c r="L49" s="3" t="n">
         <v>0.150563</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="M49" s="3" t="n">
         <v>0.041324</v>
       </c>
-      <c r="M49" s="7" t="n">
+      <c r="N49" s="3" t="n">
         <v>0.148</v>
       </c>
-      <c r="N49" s="7" t="n">
+      <c r="O49" s="3" t="n">
         <v>1.0522</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="P49" s="3" t="n">
         <v>1.0624</v>
       </c>
-      <c r="P49" s="7" t="n">
+      <c r="Q49" s="3" t="n">
         <v>1.0099</v>
       </c>
-      <c r="Q49" s="7" t="n">
+      <c r="R49" s="3" t="n">
         <v>1.1139</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="50" s="4" spans="1:17">
-      <c r="A50" s="7" t="s">
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="50" s="1" spans="1:20">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="7" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.0552034074544455</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="3" t="n">
         <v>0.212860914808745</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.106430457404372</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="7" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.283091187477112</v>
       </c>
-      <c r="G50" s="7" t="n">
+      <c r="G50" s="3" t="n">
         <v>0.967920170426502</v>
       </c>
-      <c r="H50" s="7" t="n">
+      <c r="H50" s="3" t="n">
         <v>1.31138034824464</v>
       </c>
-      <c r="I50" s="7" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.01401616602493</v>
       </c>
-      <c r="J50" s="7" t="n">
-        <v>1.182489385359446</v>
-      </c>
-      <c r="K50" s="7" t="n">
+      <c r="J50" s="3" t="n">
+        <v>1.191534265982239</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1.186836877074403</v>
+      </c>
+      <c r="L50" s="3" t="n">
         <v>0.135857</v>
       </c>
-      <c r="L50" s="7" t="n">
+      <c r="M50" s="3" t="n">
         <v>0.089393</v>
       </c>
-      <c r="M50" s="7" t="n">
+      <c r="N50" s="3" t="n">
         <v>0.1653</v>
       </c>
-      <c r="N50" s="7" t="n">
+      <c r="O50" s="3" t="n">
         <v>1.072</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="P50" s="3" t="n">
         <v>1.0829</v>
       </c>
-      <c r="P50" s="7" t="n">
+      <c r="Q50" s="3" t="n">
         <v>1.0086</v>
       </c>
-      <c r="Q50" s="7" t="n">
+      <c r="R50" s="3" t="n">
         <v>1.104</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="51" s="4" spans="1:17">
-      <c r="A51" s="7" t="s">
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="51" s="1" spans="1:20">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="7" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.191009047328739</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="3" t="n">
         <v>0.325015095214131</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="3" t="n">
         <v>0.162507547607065</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="3" t="n">
         <v>0.969326336866368</v>
       </c>
-      <c r="F51" s="7" t="n">
+      <c r="F51" s="3" t="n">
         <v>0.116829991340637</v>
       </c>
-      <c r="G51" s="7" t="n">
+      <c r="G51" s="3" t="n">
         <v>1.05139506610428</v>
       </c>
-      <c r="H51" s="7" t="n">
+      <c r="H51" s="3" t="n">
         <v>1.21083066532002</v>
       </c>
-      <c r="I51" s="7" t="n">
+      <c r="I51" s="3" t="n">
         <v>1.019730270533864</v>
       </c>
-      <c r="J51" s="7" t="n">
-        <v>1.108517409986727</v>
-      </c>
-      <c r="K51" s="7" t="n">
+      <c r="J51" s="3" t="n">
+        <v>1.114451523571425</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1.109790808289841</v>
+      </c>
+      <c r="L51" s="3" t="n">
         <v>0.259719</v>
       </c>
-      <c r="L51" s="7" t="n">
+      <c r="M51" s="3" t="n">
         <v>0.100384</v>
       </c>
-      <c r="M51" s="7" t="n">
+      <c r="N51" s="3" t="n">
         <v>0.2003</v>
       </c>
-      <c r="N51" s="7" t="n">
+      <c r="O51" s="3" t="n">
         <v>1.0327</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="P51" s="3" t="n">
         <v>1.0936</v>
       </c>
-      <c r="P51" s="7" t="n">
+      <c r="Q51" s="3" t="n">
         <v>1.0152</v>
       </c>
-      <c r="Q51" s="7" t="n">
+      <c r="R51" s="3" t="n">
         <v>1.1271</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="52" s="4" spans="1:17">
-      <c r="A52" s="7" t="s">
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="52" s="1" spans="1:20">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.0840932366786505</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="3" t="n">
         <v>0.271391535212376</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="3" t="n">
         <v>0.135695767606188</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="7" t="n">
+      <c r="F52" s="3" t="n">
         <v>0.101219296455383</v>
       </c>
-      <c r="G52" s="7" t="n">
+      <c r="G52" s="3" t="n">
         <v>1.08050469122386</v>
       </c>
-      <c r="H52" s="7" t="n">
+      <c r="H52" s="3" t="n">
         <v>1.30816278739971</v>
       </c>
-      <c r="I52" s="7" t="n">
+      <c r="I52" s="3" t="n">
         <v>1.019096520819365</v>
       </c>
-      <c r="J52" s="7" t="n">
-        <v>1.145776014688095</v>
-      </c>
-      <c r="K52" s="7" t="n">
+      <c r="J52" s="3" t="n">
+        <v>1.13572679483751</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>1.146157751550966</v>
+      </c>
+      <c r="L52" s="3" t="n">
         <v>0.181312</v>
       </c>
-      <c r="L52" s="7" t="n">
+      <c r="M52" s="3" t="n">
         <v>0.121827</v>
       </c>
-      <c r="M52" s="7" t="n">
+      <c r="N52" s="3" t="n">
         <v>0.198</v>
       </c>
-      <c r="N52" s="7" t="n">
+      <c r="O52" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O52" s="7" t="n">
+      <c r="P52" s="3" t="n">
         <v>1.0613</v>
       </c>
-      <c r="P52" s="7" t="n">
+      <c r="Q52" s="3" t="n">
         <v>1.0144</v>
       </c>
-      <c r="Q52" s="7" t="n">
+      <c r="R52" s="3" t="n">
         <v>1.2264</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="53" s="4" spans="1:17">
-      <c r="A53" s="7" t="s">
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="53" s="1" spans="1:20">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.0567901646793317</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="3" t="n">
         <v>0.179443732547551</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="3" t="n">
         <v>0.0897218662737756</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="7" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.47997522354126</v>
       </c>
-      <c r="G53" s="7" t="n">
+      <c r="G53" s="3" t="n">
         <v>1.0175426410584</v>
       </c>
-      <c r="H53" s="7" t="n">
+      <c r="H53" s="3" t="n">
         <v>1.22617282576801</v>
       </c>
-      <c r="I53" s="7" t="n">
+      <c r="I53" s="3" t="n">
         <v>1.01763001988781</v>
       </c>
-      <c r="J53" s="7" t="n">
-        <v>1.133749111374432</v>
-      </c>
-      <c r="K53" s="7" t="n">
+      <c r="J53" s="3" t="n">
+        <v>1.142302291639041</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1.136953381080558</v>
+      </c>
+      <c r="L53" s="3" t="n">
         <v>0.137841</v>
       </c>
-      <c r="L53" s="7" t="n">
+      <c r="M53" s="3" t="n">
         <v>0.070685</v>
       </c>
-      <c r="M53" s="7" t="n">
+      <c r="N53" s="3" t="n">
         <v>0.1503</v>
       </c>
-      <c r="N53" s="7" t="n">
+      <c r="O53" s="3" t="n">
         <v>1.0496</v>
       </c>
-      <c r="O53" s="7" t="n">
+      <c r="P53" s="3" t="n">
         <v>1.0305</v>
       </c>
-      <c r="P53" s="7" t="n">
+      <c r="Q53" s="3" t="n">
         <v>1.0075</v>
       </c>
-      <c r="Q53" s="7" t="n">
+      <c r="R53" s="3" t="n">
         <v>1.0517</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="54" s="4" spans="1:17">
-      <c r="A54" s="7" t="s">
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="54" s="1" spans="1:20">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.07991939744157001</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="3" t="n">
         <v>0.225217971223215</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="3" t="n">
         <v>0.112608985611607</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="7" t="n">
+      <c r="F54" s="3" t="n">
         <v>0.258679032325745</v>
       </c>
-      <c r="G54" s="7" t="n">
+      <c r="G54" s="3" t="n">
         <v>1.07577643029155</v>
       </c>
-      <c r="H54" s="7" t="n">
+      <c r="H54" s="3" t="n">
         <v>1.25684010223509</v>
       </c>
-      <c r="I54" s="7" t="n">
+      <c r="I54" s="3" t="n">
         <v>1.018616411782885</v>
       </c>
-      <c r="J54" s="7" t="n">
-        <v>1.156830550188169</v>
-      </c>
-      <c r="K54" s="7" t="n">
+      <c r="J54" s="3" t="n">
+        <v>1.156697313795946</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>1.156569665920216</v>
+      </c>
+      <c r="L54" s="3" t="n">
         <v>0.157883</v>
       </c>
-      <c r="L54" s="7" t="n">
+      <c r="M54" s="3" t="n">
         <v>0.066898</v>
       </c>
-      <c r="M54" s="7" t="n">
+      <c r="N54" s="3" t="n">
         <v>0.1714</v>
       </c>
-      <c r="N54" s="7" t="n">
+      <c r="O54" s="3" t="n">
         <v>1.0562</v>
       </c>
-      <c r="O54" s="7" t="n">
+      <c r="P54" s="3" t="n">
         <v>1.0771</v>
       </c>
-      <c r="P54" s="7" t="n">
+      <c r="Q54" s="3" t="n">
         <v>1.0106</v>
       </c>
-      <c r="Q54" s="7" t="n">
+      <c r="R54" s="3" t="n">
         <v>1.1732</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="55" s="4" spans="1:17">
-      <c r="A55" s="7" t="s">
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="55" s="1" spans="1:20">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.336854406390639</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="3" t="n">
         <v>0.500017300887722</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" s="3" t="n">
         <v>0.250008650443861</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="3" t="n">
         <v>0.975348410594997</v>
       </c>
-      <c r="F55" s="7" t="n">
+      <c r="F55" s="3" t="n">
         <v>0.184032201766968</v>
       </c>
-      <c r="G55" s="7" t="n">
+      <c r="G55" s="3" t="n">
         <v>1.07081632481273</v>
       </c>
-      <c r="H55" s="7" t="n">
+      <c r="H55" s="3" t="n">
         <v>1.22204791896478</v>
       </c>
-      <c r="I55" s="7" t="n">
+      <c r="I55" s="3" t="n">
         <v>1.03704540863108</v>
       </c>
-      <c r="J55" s="7" t="n">
-        <v>1.167954495766565</v>
-      </c>
-      <c r="K55" s="7" t="n">
+      <c r="J55" s="3" t="n">
+        <v>1.168874394129698</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1.173617043685416</v>
+      </c>
+      <c r="L55" s="3" t="n">
         <v>0.436832</v>
       </c>
-      <c r="L55" s="7" t="n">
+      <c r="M55" s="3" t="n">
         <v>0.149298</v>
       </c>
-      <c r="M55" s="7" t="n">
+      <c r="N55" s="3" t="n">
         <v>0.3073</v>
       </c>
-      <c r="N55" s="7" t="n">
+      <c r="O55" s="3" t="n">
         <v>1.0964</v>
       </c>
-      <c r="O55" s="7" t="n">
+      <c r="P55" s="3" t="n">
         <v>1.1058</v>
       </c>
-      <c r="P55" s="7" t="n">
+      <c r="Q55" s="3" t="n">
         <v>1.0648</v>
       </c>
-      <c r="Q55" s="7" t="n">
+      <c r="R55" s="3" t="n">
         <v>1.2443</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="56" s="4" spans="1:17">
-      <c r="A56" s="7" t="s">
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="56" s="1" spans="1:20">
+      <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="3" t="n">
         <v>0.21124546674377</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="3" t="n">
         <v>0.225157602030626</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" s="3" t="n">
         <v>0.112578801015313</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="3" t="n">
         <v>0.409803444611899</v>
       </c>
-      <c r="F56" s="7" t="n">
+      <c r="F56" s="3" t="n">
         <v>0.101127445697784</v>
       </c>
-      <c r="G56" s="7" t="n">
+      <c r="G56" s="3" t="n">
         <v>1.02660055954752</v>
       </c>
-      <c r="H56" s="7" t="n">
+      <c r="H56" s="3" t="n">
         <v>1.22376582918024</v>
       </c>
-      <c r="I56" s="7" t="n">
+      <c r="I56" s="3" t="n">
         <v>1.027478978445062</v>
       </c>
-      <c r="J56" s="7" t="n">
-        <v>1.108454225774125</v>
-      </c>
-      <c r="K56" s="7" t="n">
+      <c r="J56" s="3" t="n">
+        <v>1.112444497815785</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>1.108954571358117</v>
+      </c>
+      <c r="L56" s="3" t="n">
         <v>0.288172</v>
       </c>
-      <c r="L56" s="7" t="n">
+      <c r="M56" s="3" t="n">
         <v>0.120387</v>
       </c>
-      <c r="M56" s="7" t="n">
+      <c r="N56" s="3" t="n">
         <v>0.2293</v>
       </c>
-      <c r="N56" s="7" t="n">
+      <c r="O56" s="3" t="n">
         <v>1.0499</v>
       </c>
-      <c r="O56" s="7" t="n">
+      <c r="P56" s="3" t="n">
         <v>1.0852</v>
       </c>
-      <c r="P56" s="7" t="n">
+      <c r="Q56" s="3" t="n">
         <v>1.0272</v>
       </c>
-      <c r="Q56" s="7" t="n">
+      <c r="R56" s="3" t="n">
         <v>1.1492</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="57" s="4" spans="1:17">
-      <c r="A57" s="7" t="s">
+      <c r="S56" s="3" t="n"/>
+      <c r="T56" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="57" s="1" spans="1:20">
+      <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="3" t="n">
         <v>0.720456447262156</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="3" t="n">
         <v>1.39113933118116</v>
       </c>
-      <c r="D57" s="7" t="n">
+      <c r="D57" s="3" t="n">
         <v>0.695569665590581</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="3" t="n">
         <v>1.15918873798743</v>
       </c>
-      <c r="F57" s="7" t="n">
+      <c r="F57" s="3" t="n">
         <v>0.408868849277496</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G57" s="3" t="n">
         <v>1.1786987526183</v>
       </c>
-      <c r="H57" s="7" t="n">
+      <c r="H57" s="3" t="n">
         <v>1.36978809560489</v>
       </c>
-      <c r="I57" s="7" t="n">
+      <c r="I57" s="3" t="n">
         <v>1.127867402225941</v>
       </c>
-      <c r="J57" s="7" t="n">
-        <v>1.229602977967988</v>
-      </c>
-      <c r="K57" s="7" t="n">
+      <c r="J57" s="3" t="n">
+        <v>1.222362834500043</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>1.224994423994216</v>
+      </c>
+      <c r="L57" s="3" t="n">
         <v>0.929749</v>
       </c>
-      <c r="L57" s="7" t="n">
+      <c r="M57" s="3" t="n">
         <v>0.8644500000000001</v>
       </c>
-      <c r="M57" s="7" t="n">
+      <c r="N57" s="3" t="n">
         <v>0.5694</v>
       </c>
-      <c r="N57" s="7" t="n">
+      <c r="O57" s="3" t="n">
         <v>1.2855</v>
       </c>
-      <c r="O57" s="7" t="n">
+      <c r="P57" s="3" t="n">
         <v>1.3863</v>
       </c>
-      <c r="P57" s="7" t="n">
+      <c r="Q57" s="3" t="n">
         <v>1.4753</v>
       </c>
-      <c r="Q57" s="7" t="n">
+      <c r="R57" s="3" t="n">
         <v>1.5634</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="58" s="4" spans="1:17">
-      <c r="A58" s="7" t="s">
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="58" s="1" spans="1:20">
+      <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="3" t="n">
         <v>0.187605853710279</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="3" t="n">
         <v>0.323644986616414</v>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="D58" s="3" t="n">
         <v>0.161822493308207</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="3" t="n">
         <v>1.65991982439823</v>
       </c>
-      <c r="F58" s="7" t="n">
+      <c r="F58" s="3" t="n">
         <v>0.160942614078522</v>
       </c>
-      <c r="G58" s="7" t="n">
+      <c r="G58" s="3" t="n">
         <v>1.06741819842079</v>
       </c>
-      <c r="H58" s="7" t="n">
+      <c r="H58" s="3" t="n">
         <v>1.27606928228114</v>
       </c>
-      <c r="I58" s="7" t="n">
+      <c r="I58" s="3" t="n">
         <v>1.024882720643882</v>
       </c>
-      <c r="J58" s="7" t="n">
-        <v>1.127026935657907</v>
-      </c>
-      <c r="K58" s="7" t="n">
+      <c r="J58" s="3" t="n">
+        <v>1.127927672179648</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>1.125890288643996</v>
+      </c>
+      <c r="L58" s="3" t="n">
         <v>0.283258</v>
       </c>
-      <c r="L58" s="7" t="n">
+      <c r="M58" s="3" t="n">
         <v>0.154595</v>
       </c>
-      <c r="M58" s="7" t="n">
+      <c r="N58" s="3" t="n">
         <v>0.2424</v>
       </c>
-      <c r="N58" s="7" t="n">
+      <c r="O58" s="3" t="n">
         <v>1.0773</v>
       </c>
-      <c r="O58" s="7" t="n">
+      <c r="P58" s="3" t="n">
         <v>1.1079</v>
       </c>
-      <c r="P58" s="7" t="n">
+      <c r="Q58" s="3" t="n">
         <v>1.0468</v>
       </c>
-      <c r="Q58" s="7" t="n">
+      <c r="R58" s="3" t="n">
         <v>1.1988</v>
       </c>
+      <c r="S58" s="3" t="n"/>
+      <c r="T58" s="3" t="n"/>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="29.14"/>
-    <col customWidth="1" max="2" min="2" style="3" width="15.42"/>
-    <col customWidth="1" max="4" min="3" style="3" width="21.71"/>
-    <col customWidth="1" max="5" min="5" style="3" width="14.28"/>
-    <col customWidth="1" max="6" min="6" style="3" width="21.29"/>
-    <col customWidth="1" max="7" min="7" style="3" width="15"/>
-    <col customWidth="1" max="8" min="8" style="3" width="24.86"/>
-    <col customWidth="1" max="9" min="9" style="3" width="23.01"/>
-    <col customWidth="1" max="10" min="10" style="3" width="23.28"/>
-    <col customWidth="1" max="11" min="11" style="3" width="22.57"/>
-    <col customWidth="1" max="12" min="12" style="3" width="22.01"/>
-    <col customWidth="1" max="13" min="13" style="3" width="9.710000000000001"/>
-    <col customWidth="1" max="17" min="14" style="3" width="22.01"/>
-    <col customWidth="1" max="1012" min="18" style="3" width="8.57"/>
-    <col customWidth="1" max="1017" min="1013" style="3" width="9.140000000000001"/>
-    <col customWidth="1" max="1022" min="1018" style="3" width="8.51"/>
-    <col customWidth="1" max="1025" min="1023" style="3" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="1" width="29.140625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.42578125"/>
+    <col customWidth="1" max="4" min="3" style="1" width="21.7109375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.28515625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="21.28515625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.28515625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="22.5703125"/>
+    <col customWidth="1" max="20" min="10" style="1" width="22"/>
+    <col customWidth="1" max="1009" min="21" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1014" min="1010" style="1" width="9.140625"/>
+    <col customWidth="1" max="1019" min="1015" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1022" min="1020" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="4" spans="1:17">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="15" r="1" s="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="4" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="1" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.1177564864</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.1903371734</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.09516858668</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>1.50747364348737</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.09377825260162349</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="3" t="n">
         <v>1.0925497002234</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.20534769349749</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="3" t="n">
         <v>1.015427817740668</v>
       </c>
-      <c r="J2" s="7" t="n">
-        <v>1.093616966378913</v>
-      </c>
-      <c r="K2" s="7" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1.098002010296139</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1.091964326271099</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>0.164661</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.049462</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="N2" s="3" t="n">
         <v>0.1349</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="O2" s="3" t="n">
         <v>1.0504</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="P2" s="3" t="n">
         <v>1.0424</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="Q2" s="3" t="n">
         <v>1.0098</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="R2" s="3" t="n">
         <v>1.1529</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="4" spans="1:17">
-      <c r="A3" s="7" t="s">
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="1" spans="1:20">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.1295965518</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.1431334362</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.07156671807999999</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.963173729286136</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.080259382724762</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="3" t="n">
         <v>1.09968720719174</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="3" t="n">
         <v>1.22283255744096</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="3" t="n">
         <v>1.013327380242555</v>
       </c>
-      <c r="J3" s="7" t="n">
-        <v>1.095351986407947</v>
-      </c>
-      <c r="K3" s="7" t="n">
+      <c r="J3" s="3" t="n">
+        <v>1.098948781369091</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.094841724955866</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0.192264</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.039058</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.1534</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="O3" s="3" t="n">
         <v>1.0423</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="P3" s="3" t="n">
         <v>1.0619</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="Q3" s="3" t="n">
         <v>1.0129</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="R3" s="3" t="n">
         <v>1.138</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="4" spans="1:17">
-      <c r="A4" s="7" t="s">
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="1" spans="1:20">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.05937719333</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.1800056991</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.09000284956</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.08254899779398</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.0970799922943115</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="3" t="n">
         <v>1.0926875659043</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="3" t="n">
         <v>1.31294543160008</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="3" t="n">
         <v>1.01509795237567</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <v>1.234164395654276</v>
-      </c>
-      <c r="K4" s="7" t="n">
+      <c r="J4" s="3" t="n">
+        <v>1.267801500179426</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1.240431408596691</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>0.108984</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.041676</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.1202</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="O4" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.9819</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="Q4" s="3" t="n">
         <v>1.006</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="R4" s="3" t="n">
         <v>1.0238</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="4" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="1" spans="1:20">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.0477321649</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.082516302</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.041258151</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.6924399813965521</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.612917304039002</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="3" t="n">
         <v>1.03787438705583</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="3" t="n">
         <v>1.23980912572439</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="3" t="n">
         <v>1.008483763261135</v>
       </c>
-      <c r="J5" s="7" t="n">
-        <v>1.114428711233872</v>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1.114071248638811</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1.118390657157891</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>0.1211</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="M5" s="3" t="n">
         <v>0.032753</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="N5" s="3" t="n">
         <v>0.1301</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="O5" s="3" t="n">
         <v>1.0545</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="P5" s="3" t="n">
         <v>1.0554</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="Q5" s="3" t="n">
         <v>1.0075</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="R5" s="3" t="n">
         <v>1.0932</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="4" spans="1:17">
-      <c r="A6" s="7" t="s">
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="1" spans="1:20">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.2906153905</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.2891124424</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.1445562212</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.948552886186566</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.0945107936859131</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.978842539353471</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="3" t="n">
         <v>1.22251186077299</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="3" t="n">
         <v>1.025938330360404</v>
       </c>
-      <c r="J6" s="7" t="n">
-        <v>1.079841495645238</v>
-      </c>
-      <c r="K6" s="7" t="n">
+      <c r="J6" s="3" t="n">
+        <v>1.081026376490576</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1.083730216173905</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>0.293885</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.084442</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.1489</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="O6" s="3" t="n">
         <v>1.0939</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.987</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1.0151</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="R6" s="3" t="n">
         <v>1.2019</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="4" spans="1:17">
-      <c r="A7" s="7" t="s">
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="1" spans="1:20">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.1533849992</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.2613845093</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.1306922546</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.13623509178105</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.150837957859039</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="3" t="n">
         <v>1.04548792381294</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="3" t="n">
         <v>1.21810991635203</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.020935195365912</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <v>1.135726632606856</v>
-      </c>
-      <c r="K7" s="7" t="n">
+      <c r="J7" s="3" t="n">
+        <v>1.141635951415185</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1.14024912869289</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0.172516</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.085936</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.1837</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="O7" s="3" t="n">
         <v>1.041</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="P7" s="3" t="n">
         <v>1.0462</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="Q7" s="3" t="n">
         <v>1.0145</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="R7" s="3" t="n">
         <v>1.1257</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="4" spans="1:17">
-      <c r="A8" s="7" t="s">
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="1" spans="1:20">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.1046111838</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.2305881486</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.1152940743</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="3" t="n">
         <v>1.01238545070665</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.0820063948631287</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="3" t="n">
         <v>1.02980923274611</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="3" t="n">
         <v>1.23942167863023</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="3" t="n">
         <v>1.018497708243543</v>
       </c>
-      <c r="J8" s="7" t="n">
-        <v>1.14194379489905</v>
-      </c>
-      <c r="K8" s="7" t="n">
+      <c r="J8" s="3" t="n">
+        <v>1.151598122326894</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1.138762397852216</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>0.134718</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.066605</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="N8" s="3" t="n">
         <v>0.1277</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="O8" s="3" t="n">
         <v>1.0539</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="P8" s="3" t="n">
         <v>1.1129</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="Q8" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="R8" s="3" t="n">
         <v>1.1002</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="4" spans="1:17">
-      <c r="A9" s="7" t="s">
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="1" spans="1:20">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.1187769229</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.2017498702</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.1008749351</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="3" t="n">
         <v>1.25575277952387</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.118756771087646</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="3" t="n">
         <v>1.07065540829841</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="3" t="n">
         <v>1.2135801669603</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="3" t="n">
         <v>1.016418710493013</v>
       </c>
-      <c r="J9" s="7" t="n">
-        <v>1.092592853661323</v>
-      </c>
-      <c r="K9" s="7" t="n">
+      <c r="J9" s="3" t="n">
+        <v>1.098654232324959</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.097976982838696</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>0.156901</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="M9" s="3" t="n">
         <v>0.048622</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.1327</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="O9" s="3" t="n">
         <v>1.0331</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="P9" s="3" t="n">
         <v>1.0422</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="Q9" s="3" t="n">
         <v>1.0077</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="R9" s="3" t="n">
         <v>1.0657</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="4" spans="1:17">
-      <c r="A10" s="7" t="s">
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="1" spans="1:20">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.1580973882</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.2503769655</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.1251884828</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.97006098194075</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.08394515514373781</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="3" t="n">
         <v>1.03278376769909</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="3" t="n">
         <v>1.23148500333637</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.021346856462052</v>
       </c>
-      <c r="J10" s="7" t="n">
-        <v>1.104081414174197</v>
-      </c>
-      <c r="K10" s="7" t="n">
+      <c r="J10" s="3" t="n">
+        <v>1.108460161712936</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1.102096469101203</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>0.173177</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.09168900000000001</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="N10" s="3" t="n">
         <v>0.1484</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="O10" s="3" t="n">
         <v>1.0412</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="P10" s="3" t="n">
         <v>1.1037</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="Q10" s="3" t="n">
         <v>1.0089</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="3" t="n">
         <v>1.1467</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="4" spans="1:17">
-      <c r="A11" s="7" t="s">
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="1" spans="1:20">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.4929971372</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.2475492189</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.1237746095</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.954551924472627</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.286069869995117</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="3" t="n">
         <v>1.03456256033216</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="3" t="n">
         <v>1.22783574264428</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="3" t="n">
         <v>1.041705344452862</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>1.114697383059803</v>
-      </c>
-      <c r="K11" s="7" t="n">
+      <c r="J11" s="3" t="n">
+        <v>1.11743587888647</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1.114391150786184</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>0.512282</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.164396</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="N11" s="3" t="n">
         <v>0.3386</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="O11" s="3" t="n">
         <v>1.0263</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="P11" s="3" t="n">
         <v>1.0916</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="Q11" s="3" t="n">
         <v>1.0319</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="R11" s="3" t="n">
         <v>1.2199</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="4" spans="1:17">
-      <c r="A12" s="7" t="s">
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="1" spans="1:20">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.1629042354</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.1353543869</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.06767719346000001</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="3" t="n">
         <v>0.872538435733085</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.141137421131134</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.11688135150065</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="3" t="n">
         <v>1.21377761657156</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.019569493436085</v>
       </c>
-      <c r="J12" s="7" t="n">
-        <v>1.129679917048746</v>
-      </c>
-      <c r="K12" s="7" t="n">
+      <c r="J12" s="3" t="n">
+        <v>1.130018132049035</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1.126224386679552</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>0.227223</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.07985</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="N12" s="3" t="n">
         <v>0.1918</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="O12" s="3" t="n">
         <v>1.0465</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="P12" s="3" t="n">
         <v>1.0908</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.0168</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="R12" s="3" t="n">
         <v>1.1391</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="4" spans="1:17">
-      <c r="A13" s="7" t="s">
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="1" spans="1:20">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.1254664971</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.2649328385</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.1324664193</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.918437920004023</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.159290313720703</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.00898670704875</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="3" t="n">
         <v>1.30777812245662</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="3" t="n">
         <v>1.019645151300029</v>
       </c>
-      <c r="J13" s="7" t="n">
-        <v>1.18969049162731</v>
-      </c>
-      <c r="K13" s="7" t="n">
+      <c r="J13" s="3" t="n">
+        <v>1.212541183782075</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1.198840919993902</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>0.146445</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.070328</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="N13" s="3" t="n">
         <v>0.1617</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="O13" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="P13" s="3" t="n">
         <v>1.1053</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="Q13" s="3" t="n">
         <v>1.0094</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="R13" s="3" t="n">
         <v>1.1173</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="14" s="4" spans="1:17">
-      <c r="A14" s="7" t="s">
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="1" spans="1:20">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.1657061294</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="3" t="n">
         <v>0.2484227597</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.1242113799</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="3" t="n">
         <v>0.801702240266616</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.17215234041214</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.04277866723409</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="3" t="n">
         <v>1.2885805715188</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.026004842542962</v>
       </c>
-      <c r="J14" s="7" t="n">
-        <v>1.157819012499975</v>
-      </c>
-      <c r="K14" s="7" t="n">
+      <c r="J14" s="3" t="n">
+        <v>1.163825218212355</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1.15977074354964</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>0.193754</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.126376</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.2046</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="O14" s="3" t="n">
         <v>1.0596</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="P14" s="3" t="n">
         <v>1.0951</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="Q14" s="3" t="n">
         <v>1.0204</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="R14" s="3" t="n">
         <v>1.1708</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="15" s="4" spans="1:17">
-      <c r="A15" s="7" t="s">
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="1" spans="1:20">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.0301064691</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="3" t="n">
         <v>0.06539954890999999</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.03269977445</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="3" t="n">
         <v>1.47164629836417</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.120495557785034</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="3" t="n">
         <v>1.03720790909654</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="3" t="n">
         <v>1.28453838525977</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="3" t="n">
         <v>1.008218757314688</v>
       </c>
-      <c r="J15" s="7" t="n">
-        <v>1.175609670129822</v>
-      </c>
-      <c r="K15" s="7" t="n">
+      <c r="J15" s="3" t="n">
+        <v>1.191344820054498</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1.176891675563887</v>
+      </c>
+      <c r="L15" s="3" t="n">
         <v>0.117996</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.02417</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="N15" s="3" t="n">
         <v>0.1175</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="O15" s="3" t="n">
         <v>1.0575</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="P15" s="3" t="n">
         <v>0.95445</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="Q15" s="3" t="n">
         <v>1.0063</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="R15" s="3" t="n">
         <v>1.0608</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="4" spans="1:17">
-      <c r="A16" s="7" t="s">
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="1" spans="1:20">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.07355862117</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="3" t="n">
         <v>0.2066583622</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.1033291811</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="3" t="n">
         <v>1.39365536991897</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.081838071346283</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.05947242769997</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="3" t="n">
         <v>1.28113893952639</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="3" t="n">
         <v>1.015397763272097</v>
       </c>
-      <c r="J16" s="7" t="n">
-        <v>1.217713532311711</v>
-      </c>
-      <c r="K16" s="7" t="n">
+      <c r="J16" s="3" t="n">
+        <v>1.240112992325194</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.230955928933025</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>0.107209</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.042299</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="N16" s="3" t="n">
         <v>0.1403</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="O16" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="P16" s="3" t="n">
         <v>1.0174</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="Q16" s="3" t="n">
         <v>1.0057</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="R16" s="3" t="n">
         <v>1.1191</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="4" spans="1:17">
-      <c r="A17" s="7" t="s">
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="1" spans="1:20">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.1364071759</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="3" t="n">
         <v>0.2538098618</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="3" t="n">
         <v>0.1269049309</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="3" t="n">
         <v>1.0125983840362</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.08119964599609381</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.0433243274532</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="3" t="n">
         <v>1.20968208986695</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="3" t="n">
         <v>1.019237280329695</v>
       </c>
-      <c r="J17" s="7" t="n">
-        <v>1.109293098105301</v>
-      </c>
-      <c r="K17" s="7" t="n">
+      <c r="J17" s="3" t="n">
+        <v>1.109762917120223</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1.109329394766699</v>
+      </c>
+      <c r="L17" s="3" t="n">
         <v>0.156121</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.123487</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="N17" s="3" t="n">
         <v>0.1478</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="O17" s="3" t="n">
         <v>1.0423</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="P17" s="3" t="n">
         <v>1.0478</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="Q17" s="3" t="n">
         <v>1.0109</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="R17" s="3" t="n">
         <v>1.1278</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" s="4" spans="1:17">
-      <c r="A18" s="7" t="s">
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="1" spans="1:20">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.1446283074</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="3" t="n">
         <v>0.2589284892</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.1294642446</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="3" t="n">
         <v>1.25729382458413</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.339002311229706</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.01000747086517</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="3" t="n">
         <v>1.24711148012853</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.023949517227612</v>
       </c>
-      <c r="J18" s="7" t="n">
-        <v>1.169902549925381</v>
-      </c>
-      <c r="K18" s="7" t="n">
+      <c r="J18" s="3" t="n">
+        <v>1.176345467830748</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1.173531040272475</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>0.157629</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.103867</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.1833</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="O18" s="3" t="n">
         <v>1.0667</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="P18" s="3" t="n">
         <v>1.0788</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="Q18" s="3" t="n">
         <v>1.0102</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="R18" s="3" t="n">
         <v>1.1505</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="4" spans="1:17">
-      <c r="A19" s="7" t="s">
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="1" spans="1:20">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.1059000336</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="3" t="n">
         <v>0.2647761998</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.1323880999</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="3" t="n">
         <v>1.38146378071382</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.120259881019592</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="3" t="n">
         <v>0.986387851922724</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="3" t="n">
         <v>1.32541112363026</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="3" t="n">
         <v>1.021920943019235</v>
       </c>
-      <c r="J19" s="7" t="n">
-        <v>1.241684113051929</v>
-      </c>
-      <c r="K19" s="7" t="n">
+      <c r="J19" s="3" t="n">
+        <v>1.284371464171659</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.255461221388706</v>
+      </c>
+      <c r="L19" s="3" t="n">
         <v>0.119112</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.065358</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="N19" s="3" t="n">
         <v>0.1306</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="O19" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="P19" s="3" t="n">
         <v>1.009</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="3" t="n">
         <v>1.0065</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="R19" s="3" t="n">
         <v>1.1176</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="4" spans="1:17">
-      <c r="A20" s="7" t="s">
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="1" spans="1:20">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.2330028954</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="3" t="n">
         <v>0.2928932188</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="3" t="n">
         <v>0.1464466094</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="3" t="n">
         <v>0.9437436771921009</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.216922223567963</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.00696301587664</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.25877259959394</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="3" t="n">
         <v>1.034129797683154</v>
       </c>
-      <c r="J20" s="7" t="n">
-        <v>1.141332050630787</v>
-      </c>
-      <c r="K20" s="7" t="n">
+      <c r="J20" s="3" t="n">
+        <v>1.14814532498406</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.148010578593135</v>
+      </c>
+      <c r="L20" s="3" t="n">
         <v>0.258092</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.184672</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="N20" s="3" t="n">
         <v>0.2358</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="O20" s="3" t="n">
         <v>1.0675</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="P20" s="3" t="n">
         <v>1.1129</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="3" t="n">
         <v>1.0253</v>
       </c>
-      <c r="Q20" s="7" t="n">
+      <c r="R20" s="3" t="n">
         <v>1.1883</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="4" spans="1:17">
-      <c r="A21" s="7" t="s">
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="1" spans="1:20">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.1844373847</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="3" t="n">
         <v>0.2668917683</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="3" t="n">
         <v>0.1334458841</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.04732896399393</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.287514090538025</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="3" t="n">
         <v>1.03006679844652</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="3" t="n">
         <v>1.23843336837376</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="3" t="n">
         <v>1.028535223871271</v>
       </c>
-      <c r="J21" s="7" t="n">
-        <v>1.167474650152986</v>
-      </c>
-      <c r="K21" s="7" t="n">
+      <c r="J21" s="3" t="n">
+        <v>1.166401963346456</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.157855109826895</v>
+      </c>
+      <c r="L21" s="3" t="n">
         <v>0.199853</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.118254</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="N21" s="3" t="n">
         <v>0.1988</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="O21" s="3" t="n">
         <v>1.0514</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="P21" s="3" t="n">
         <v>1.0936</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="Q21" s="3" t="n">
         <v>1.0216</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="R21" s="3" t="n">
         <v>1.1596</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="4" spans="1:17">
-      <c r="A22" s="7" t="s">
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="1" spans="1:20">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.1314826884</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="3" t="n">
         <v>0.2645671364</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.1322835682</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="3" t="n">
         <v>1.17407400244776</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.145316243171692</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.00435846557319</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="3" t="n">
         <v>1.24513055991941</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="3" t="n">
         <v>1.019826962701941</v>
       </c>
-      <c r="J22" s="7" t="n">
-        <v>1.132522654026434</v>
-      </c>
-      <c r="K22" s="7" t="n">
+      <c r="J22" s="3" t="n">
+        <v>1.141502597171554</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.138155236182318</v>
+      </c>
+      <c r="L22" s="3" t="n">
         <v>0.146217</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.06458</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="N22" s="3" t="n">
         <v>0.1533</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="O22" s="3" t="n">
         <v>1.0336</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="P22" s="3" t="n">
         <v>1.0296</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="Q22" s="3" t="n">
         <v>1.0102</v>
       </c>
-      <c r="Q22" s="7" t="n">
+      <c r="R22" s="3" t="n">
         <v>1.1156</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="4" spans="1:17">
-      <c r="A23" s="7" t="s">
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="1" spans="1:20">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.9975469388</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="3" t="n">
         <v>1.055528005</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.5277640027</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="3" t="n">
         <v>0.8948970226708149</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.514602482318878</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="3" t="n">
         <v>1.08886721113781</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="3" t="n">
         <v>1.39837719535972</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="3" t="n">
         <v>1.206683538494417</v>
       </c>
-      <c r="J23" s="7" t="n">
-        <v>1.332319334575574</v>
-      </c>
-      <c r="K23" s="7" t="n">
+      <c r="J23" s="3" t="n">
+        <v>1.335075079049784</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.334341700417893</v>
+      </c>
+      <c r="L23" s="3" t="n">
         <v>0.840909</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.730239</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.4477</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="O23" s="3" t="n">
         <v>1.2189</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="P23" s="3" t="n">
         <v>1.3031</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="Q23" s="3" t="n">
         <v>1.3204</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="R23" s="3" t="n">
         <v>1.5584</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="4" spans="1:17">
-      <c r="A24" s="7" t="s">
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="1" spans="1:20">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.7785526308</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="3" t="n">
         <v>0.5559773469</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.2779886735</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.10197927823132</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.550507366657257</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="3" t="n">
         <v>1.1134048126737</v>
       </c>
-      <c r="H24" s="7" t="n">
+      <c r="H24" s="3" t="n">
         <v>1.35029662521387</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="3" t="n">
         <v>1.198330702524801</v>
       </c>
-      <c r="J24" s="7" t="n">
-        <v>1.285957788112002</v>
-      </c>
-      <c r="K24" s="7" t="n">
+      <c r="J24" s="3" t="n">
+        <v>1.291200921020045</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.290470765240708</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>0.830017</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="M24" s="3" t="n">
         <v>0.73467</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="N24" s="3" t="n">
         <v>0.4912</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="O24" s="3" t="n">
         <v>1.1653</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="P24" s="3" t="n">
         <v>1.2857</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="Q24" s="3" t="n">
         <v>1.2547</v>
       </c>
-      <c r="Q24" s="7" t="n">
+      <c r="R24" s="3" t="n">
         <v>1.4325</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="4" spans="1:17">
-      <c r="A25" s="7" t="s">
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="1" spans="1:20">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.2745697552</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="3" t="n">
         <v>0.319045446</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.159522723</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="3" t="n">
         <v>1.46714019967002</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.419068992137909</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="3" t="n">
         <v>0.975991046058558</v>
       </c>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="3" t="n">
         <v>1.20913974097164</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I25" s="3" t="n">
         <v>1.0374306972863</v>
       </c>
-      <c r="J25" s="7" t="n">
-        <v>1.09742806791149</v>
-      </c>
-      <c r="K25" s="7" t="n">
+      <c r="J25" s="3" t="n">
+        <v>1.099874616866769</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1.099407071215352</v>
+      </c>
+      <c r="L25" s="3" t="n">
         <v>0.28192</v>
       </c>
-      <c r="L25" s="7" t="n">
+      <c r="M25" s="3" t="n">
         <v>0.274553</v>
       </c>
-      <c r="M25" s="7" t="n">
+      <c r="N25" s="3" t="n">
         <v>0.2419</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="O25" s="3" t="n">
         <v>1.0624</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="P25" s="3" t="n">
         <v>1.0194</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="Q25" s="3" t="n">
         <v>1.0119</v>
       </c>
-      <c r="Q25" s="7" t="n">
+      <c r="R25" s="3" t="n">
         <v>1.0857</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="4" spans="1:17">
-      <c r="A26" s="7" t="s">
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="1" spans="1:20">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.5615611823</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="3" t="n">
         <v>0.4245726915</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.2122863458</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="3" t="n">
         <v>1.1169823931375</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.609214425086975</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="3" t="n">
         <v>1.06956345855907</v>
       </c>
-      <c r="H26" s="7" t="n">
+      <c r="H26" s="3" t="n">
         <v>1.27766692899813</v>
       </c>
-      <c r="I26" s="7" t="n">
+      <c r="I26" s="3" t="n">
         <v>1.107004593600418</v>
       </c>
-      <c r="J26" s="7" t="n">
-        <v>1.235603755085892</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="J26" s="3" t="n">
+        <v>1.239687786469055</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1.235882848526557</v>
+      </c>
+      <c r="L26" s="3" t="n">
         <v>0.623309</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="M26" s="3" t="n">
         <v>0.5708</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="N26" s="3" t="n">
         <v>0.353</v>
       </c>
-      <c r="N26" s="7" t="n">
+      <c r="O26" s="3" t="n">
         <v>1.1053</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="P26" s="3" t="n">
         <v>1.2162</v>
       </c>
-      <c r="P26" s="7" t="n">
+      <c r="Q26" s="3" t="n">
         <v>1.1299</v>
       </c>
-      <c r="Q26" s="7" t="n">
+      <c r="R26" s="3" t="n">
         <v>1.2877</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="27" s="4" spans="1:17">
-      <c r="A27" s="7" t="s">
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="1" spans="1:20">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.5063095348</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="3" t="n">
         <v>0.449302489</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.2246512445</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="3" t="n">
         <v>1.13727094601649</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.401383757591248</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="3" t="n">
         <v>1.06734884801904</v>
       </c>
-      <c r="H27" s="7" t="n">
+      <c r="H27" s="3" t="n">
         <v>1.38875112648586</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="3" t="n">
         <v>1.098737543019427</v>
       </c>
-      <c r="J27" s="7" t="n">
-        <v>1.274324040204118</v>
-      </c>
-      <c r="K27" s="7" t="n">
+      <c r="J27" s="3" t="n">
+        <v>1.278685324573823</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1.274713011542075</v>
+      </c>
+      <c r="L27" s="3" t="n">
         <v>0.546529</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.489224</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="N27" s="3" t="n">
         <v>0.3691</v>
       </c>
-      <c r="N27" s="7" t="n">
+      <c r="O27" s="3" t="n">
         <v>1.1257</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="P27" s="3" t="n">
         <v>1.2715</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="Q27" s="3" t="n">
         <v>1.1682</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="R27" s="3" t="n">
         <v>1.3916</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="4" spans="1:17">
-      <c r="A28" s="7" t="s">
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="1" spans="1:20">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.8501990563</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="3" t="n">
         <v>0.6207205056</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="3" t="n">
         <v>0.3103602528</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="3" t="n">
         <v>0.87791542223299</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.377025246620178</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.21863396659798</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="3" t="n">
         <v>1.31515362374854</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="3" t="n">
         <v>1.200800878348343</v>
       </c>
-      <c r="J28" s="7" t="n">
-        <v>1.24974499303856</v>
-      </c>
-      <c r="K28" s="7" t="n">
+      <c r="J28" s="3" t="n">
+        <v>1.251975739213562</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1.249837350741265</v>
+      </c>
+      <c r="L28" s="3" t="n">
         <v>0.874788</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="M28" s="3" t="n">
         <v>0.742903</v>
       </c>
-      <c r="M28" s="7" t="n">
+      <c r="N28" s="3" t="n">
         <v>0.4781</v>
       </c>
-      <c r="N28" s="7" t="n">
+      <c r="O28" s="3" t="n">
         <v>1.2301</v>
       </c>
-      <c r="O28" s="7" t="n">
+      <c r="P28" s="3" t="n">
         <v>1.2662</v>
       </c>
-      <c r="P28" s="7" t="n">
+      <c r="Q28" s="3" t="n">
         <v>1.3113</v>
       </c>
-      <c r="Q28" s="7" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.5305</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="29" s="4" spans="1:17">
-      <c r="A29" s="7" t="s">
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="1" spans="1:20">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.8707611545</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="3" t="n">
         <v>0.5043097799</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="3" t="n">
         <v>0.25215489</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="3" t="n">
         <v>1.14169933300918</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.515998005867004</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="3" t="n">
         <v>1.27897169449815</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="3" t="n">
         <v>1.4422999500802</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="3" t="n">
         <v>1.210744633305248</v>
       </c>
-      <c r="J29" s="7" t="n">
-        <v>1.244647065232359</v>
-      </c>
-      <c r="K29" s="7" t="n">
+      <c r="J29" s="3" t="n">
+        <v>1.244658703453286</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1.247071175078628</v>
+      </c>
+      <c r="L29" s="3" t="n">
         <v>0.892909</v>
       </c>
-      <c r="L29" s="7" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.7276820000000001</v>
       </c>
-      <c r="M29" s="7" t="n">
+      <c r="N29" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="N29" s="7" t="n">
+      <c r="O29" s="3" t="n">
         <v>1.235</v>
       </c>
-      <c r="O29" s="7" t="n">
+      <c r="P29" s="3" t="n">
         <v>1.3497</v>
       </c>
-      <c r="P29" s="7" t="n">
+      <c r="Q29" s="3" t="n">
         <v>1.3954</v>
       </c>
-      <c r="Q29" s="7" t="n">
+      <c r="R29" s="3" t="n">
         <v>1.6324</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" s="4" spans="1:17">
-      <c r="A30" s="7" t="s">
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="1" spans="1:20">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.9819134197</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="3" t="n">
         <v>1.552634535</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="3" t="n">
         <v>0.7763172677</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="3" t="n">
         <v>1.17077145085669</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.664268016815186</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.3119818680947</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="3" t="n">
         <v>1.50211593256469</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="3" t="n">
         <v>1.349370774256367</v>
       </c>
-      <c r="J30" s="7" t="n">
-        <v>1.311136383321191</v>
-      </c>
-      <c r="K30" s="7" t="n">
+      <c r="J30" s="3" t="n">
+        <v>1.31059938607189</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1.308156279137128</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>0.986097</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.614686</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="N30" s="3" t="n">
         <v>0.6996</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="O30" s="3" t="n">
         <v>1.4454</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="P30" s="3" t="n">
         <v>1.4893</v>
       </c>
-      <c r="P30" s="7" t="n">
+      <c r="Q30" s="3" t="n">
         <v>1.7286</v>
       </c>
-      <c r="Q30" s="7" t="n">
+      <c r="R30" s="3" t="n">
         <v>1.4917</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="31" s="4" spans="1:17">
-      <c r="A31" s="7" t="s">
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="1" spans="1:20">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.9461564902</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="3" t="n">
         <v>1.334603904</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="3" t="n">
         <v>0.667301952</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="3" t="n">
         <v>1.32446964796176</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.499157190322876</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.34465575244256</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="3" t="n">
         <v>1.47830943842237</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="3" t="n">
         <v>1.275474695026052</v>
       </c>
-      <c r="J31" s="7" t="n">
-        <v>1.266093483952902</v>
-      </c>
-      <c r="K31" s="7" t="n">
+      <c r="J31" s="3" t="n">
+        <v>1.279572300276603</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.269412436630524</v>
+      </c>
+      <c r="L31" s="3" t="n">
         <v>0.9574279999999999</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.800991</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="N31" s="3" t="n">
         <v>0.6014</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="O31" s="3" t="n">
         <v>1.3235</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="P31" s="3" t="n">
         <v>1.3818</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="Q31" s="3" t="n">
         <v>1.4904</v>
       </c>
-      <c r="Q31" s="7" t="n">
+      <c r="R31" s="3" t="n">
         <v>1.5091</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="32" s="4" spans="1:17">
-      <c r="A32" s="7" t="s">
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="1" spans="1:20">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.5713990427</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="3" t="n">
         <v>0.287982712</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="3" t="n">
         <v>0.143991356</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="3" t="n">
         <v>1.2845720435292</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.276989758014679</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="3" t="n">
         <v>1.12520171251192</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="3" t="n">
         <v>1.31793400072261</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.098914039332442</v>
       </c>
-      <c r="J32" s="7" t="n">
-        <v>1.269699286886756</v>
-      </c>
-      <c r="K32" s="7" t="n">
+      <c r="J32" s="3" t="n">
+        <v>1.265503276879594</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1.272227602473901</v>
+      </c>
+      <c r="L32" s="3" t="n">
         <v>0.611714</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="M32" s="3" t="n">
         <v>0.42632</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="N32" s="3" t="n">
         <v>0.3688</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="O32" s="3" t="n">
         <v>1.1111</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="P32" s="3" t="n">
         <v>1.2521</v>
       </c>
-      <c r="P32" s="7" t="n">
+      <c r="Q32" s="3" t="n">
         <v>1.123</v>
       </c>
-      <c r="Q32" s="7" t="n">
+      <c r="R32" s="3" t="n">
         <v>1.5214</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="33" s="4" spans="1:17">
-      <c r="A33" s="7" t="s">
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="1" spans="1:20">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.972867355</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="3" t="n">
         <v>1.339050629</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="3" t="n">
         <v>0.6695253145</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="3" t="n">
         <v>1.21940628292046</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.547304630279541</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.28655563787908</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="3" t="n">
         <v>1.49401851825334</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="3" t="n">
         <v>1.341765282649669</v>
       </c>
-      <c r="J33" s="7" t="n">
-        <v>1.317739525264176</v>
-      </c>
-      <c r="K33" s="7" t="n">
+      <c r="J33" s="3" t="n">
+        <v>1.310553598576121</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1.315754737253327</v>
+      </c>
+      <c r="L33" s="3" t="n">
         <v>0.978085</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="M33" s="3" t="n">
         <v>0.73763</v>
       </c>
-      <c r="M33" s="7" t="n">
+      <c r="N33" s="3" t="n">
         <v>0.6365</v>
       </c>
-      <c r="N33" s="7" t="n">
+      <c r="O33" s="3" t="n">
         <v>1.4123</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="P33" s="3" t="n">
         <v>1.4712</v>
       </c>
-      <c r="P33" s="7" t="n">
+      <c r="Q33" s="3" t="n">
         <v>1.5125</v>
       </c>
-      <c r="Q33" s="7" t="n">
+      <c r="R33" s="3" t="n">
         <v>1.5571</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="34" s="4" spans="1:17">
-      <c r="A34" s="7" t="s">
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="1" spans="1:20">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.8887874174</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="3" t="n">
         <v>0.8120037738</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="3" t="n">
         <v>0.4060018869</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="3" t="n">
         <v>1.31925631570418</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.75604248046875</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.25303628319449</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="3" t="n">
         <v>1.45072169723009</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.246429497002406</v>
       </c>
-      <c r="J34" s="7" t="n">
-        <v>1.264854990341977</v>
-      </c>
-      <c r="K34" s="7" t="n">
+      <c r="J34" s="3" t="n">
+        <v>1.252499935552187</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1.253750763786786</v>
+      </c>
+      <c r="L34" s="3" t="n">
         <v>0.9160239999999999</v>
       </c>
-      <c r="L34" s="7" t="n">
+      <c r="M34" s="3" t="n">
         <v>0.85323</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="N34" s="3" t="n">
         <v>0.5548999999999999</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="O34" s="3" t="n">
         <v>1.2678</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="P34" s="3" t="n">
         <v>1.3787</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="Q34" s="3" t="n">
         <v>1.448</v>
       </c>
-      <c r="Q34" s="7" t="n">
+      <c r="R34" s="3" t="n">
         <v>1.4181</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="35" s="4" spans="1:17">
-      <c r="A35" s="7" t="s">
+      <c r="S34" s="3" t="n"/>
+      <c r="T34" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="1" spans="1:20">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.834944603</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="3" t="n">
         <v>0.4474580324</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="3" t="n">
         <v>0.2237290162</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="3" t="n">
         <v>1.16022632342594</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.660124897956848</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="3" t="n">
         <v>1.20403803712828</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="3" t="n">
         <v>1.34942526164374</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="3" t="n">
         <v>1.185079358147621</v>
       </c>
-      <c r="J35" s="7" t="n">
-        <v>1.23499302827794</v>
-      </c>
-      <c r="K35" s="7" t="n">
+      <c r="J35" s="3" t="n">
+        <v>1.237525839618983</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1.235326975294906</v>
+      </c>
+      <c r="L35" s="3" t="n">
         <v>0.866406</v>
       </c>
-      <c r="L35" s="7" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.774961</v>
       </c>
-      <c r="M35" s="7" t="n">
+      <c r="N35" s="3" t="n">
         <v>0.516</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="O35" s="3" t="n">
         <v>1.1887</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="P35" s="3" t="n">
         <v>1.2503</v>
       </c>
-      <c r="P35" s="7" t="n">
+      <c r="Q35" s="3" t="n">
         <v>1.3195</v>
       </c>
-      <c r="Q35" s="7" t="n">
+      <c r="R35" s="3" t="n">
         <v>1.4243</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="36" s="4" spans="1:17">
-      <c r="A36" s="7" t="s">
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="1" spans="1:20">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.6750498793</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="3" t="n">
         <v>0.3996259143</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.1998129571</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.969252268807283</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.302391827106476</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="3" t="n">
         <v>1.16507209506016</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="H36" s="3" t="n">
         <v>1.33610049767183</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="3" t="n">
         <v>1.123229592677083</v>
       </c>
-      <c r="J36" s="7" t="n">
-        <v>1.236987781062551</v>
-      </c>
-      <c r="K36" s="7" t="n">
+      <c r="J36" s="3" t="n">
+        <v>1.236266851449872</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1.236526653673719</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>0.7553800000000001</v>
       </c>
-      <c r="L36" s="7" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.443559</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="N36" s="3" t="n">
         <v>0.4039</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="O36" s="3" t="n">
         <v>1.1597</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="P36" s="3" t="n">
         <v>1.2016</v>
       </c>
-      <c r="P36" s="7" t="n">
+      <c r="Q36" s="3" t="n">
         <v>1.1954</v>
       </c>
-      <c r="Q36" s="7" t="n">
+      <c r="R36" s="3" t="n">
         <v>1.3998</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="37" s="4" spans="1:17">
-      <c r="A37" s="7" t="s">
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="1" spans="1:20">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.9236439746</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="3" t="n">
         <v>0.7551295867</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.3775647934</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="3" t="n">
         <v>0.587492211320448</v>
       </c>
-      <c r="F37" s="7" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.515679597854614</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.32475994801703</v>
       </c>
-      <c r="H37" s="7" t="n">
+      <c r="H37" s="3" t="n">
         <v>1.40998222539328</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="I37" s="3" t="n">
         <v>1.191520164666026</v>
       </c>
-      <c r="J37" s="7" t="n">
-        <v>1.243810159763503</v>
-      </c>
-      <c r="K37" s="7" t="n">
+      <c r="J37" s="3" t="n">
+        <v>1.248038373338318</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1.246800795120514</v>
+      </c>
+      <c r="L37" s="3" t="n">
         <v>0.93923</v>
       </c>
-      <c r="L37" s="7" t="n">
+      <c r="M37" s="3" t="n">
         <v>0.625335</v>
       </c>
-      <c r="M37" s="7" t="n">
+      <c r="N37" s="3" t="n">
         <v>0.5962</v>
       </c>
-      <c r="N37" s="7" t="n">
+      <c r="O37" s="3" t="n">
         <v>1.3221</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="P37" s="3" t="n">
         <v>1.2942</v>
       </c>
-      <c r="P37" s="7" t="n">
+      <c r="Q37" s="3" t="n">
         <v>1.4153</v>
       </c>
-      <c r="Q37" s="7" t="n">
+      <c r="R37" s="3" t="n">
         <v>1.3739</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="38" s="4" spans="1:17">
-      <c r="A38" s="7" t="s">
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="1" spans="1:20">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.08185698407</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="3" t="n">
         <v>0.1775928957</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.08879644785</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="3" t="n">
         <v>1.2860070224186</v>
       </c>
-      <c r="F38" s="7" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.368928968906403</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.08388744706463</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="H38" s="3" t="n">
         <v>1.21545426889896</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I38" s="3" t="n">
         <v>1.015367394119267</v>
       </c>
-      <c r="J38" s="7" t="n">
-        <v>1.101875134856573</v>
-      </c>
-      <c r="K38" s="7" t="n">
+      <c r="J38" s="3" t="n">
+        <v>1.106869741214754</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1.109856731909846</v>
+      </c>
+      <c r="L38" s="3" t="n">
         <v>0.131583</v>
       </c>
-      <c r="L38" s="7" t="n">
+      <c r="M38" s="3" t="n">
         <v>0.042846</v>
       </c>
-      <c r="M38" s="7" t="n">
+      <c r="N38" s="3" t="n">
         <v>0.1387</v>
       </c>
-      <c r="N38" s="7" t="n">
+      <c r="O38" s="3" t="n">
         <v>1.0331</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="P38" s="3" t="n">
         <v>1.0275</v>
       </c>
-      <c r="P38" s="7" t="n">
+      <c r="Q38" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q38" s="7" t="n">
+      <c r="R38" s="3" t="n">
         <v>1.0838</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="39" s="4" spans="1:17">
-      <c r="A39" s="7" t="s">
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="1" spans="1:20">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.1524291052</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="3" t="n">
         <v>0.0835929764</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.0417964882</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="3" t="n">
         <v>0.926065968145025</v>
       </c>
-      <c r="F39" s="7" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.481263875961304</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="3" t="n">
         <v>0.974315377578442</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="3" t="n">
         <v>1.25202136582812</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="3" t="n">
         <v>1.018651367194527</v>
       </c>
-      <c r="J39" s="7" t="n">
-        <v>1.152788408002165</v>
-      </c>
-      <c r="K39" s="7" t="n">
+      <c r="J39" s="3" t="n">
+        <v>1.151551354677567</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1.147395008216591</v>
+      </c>
+      <c r="L39" s="3" t="n">
         <v>0.233445</v>
       </c>
-      <c r="L39" s="7" t="n">
+      <c r="M39" s="3" t="n">
         <v>0.083718</v>
       </c>
-      <c r="M39" s="7" t="n">
+      <c r="N39" s="3" t="n">
         <v>0.2058</v>
       </c>
-      <c r="N39" s="7" t="n">
+      <c r="O39" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="O39" s="7" t="n">
+      <c r="P39" s="3" t="n">
         <v>1.0713</v>
       </c>
-      <c r="P39" s="7" t="n">
+      <c r="Q39" s="3" t="n">
         <v>1.0223</v>
       </c>
-      <c r="Q39" s="7" t="n">
+      <c r="R39" s="3" t="n">
         <v>1.252</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="40" s="4" spans="1:17">
-      <c r="A40" s="7" t="s">
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="1" spans="1:20">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.1276092839</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="3" t="n">
         <v>0.1862455688</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="3" t="n">
         <v>0.09312278439</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="3" t="n">
         <v>1.18165064229571</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.117399990558624</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.10448941949108</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="3" t="n">
         <v>1.21115241632103</v>
       </c>
-      <c r="I40" s="7" t="n">
+      <c r="I40" s="3" t="n">
         <v>1.01521713094606</v>
       </c>
-      <c r="J40" s="7" t="n">
-        <v>1.125276055508808</v>
-      </c>
-      <c r="K40" s="7" t="n">
+      <c r="J40" s="3" t="n">
+        <v>1.126658019963157</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1.127780044991968</v>
+      </c>
+      <c r="L40" s="3" t="n">
         <v>0.174751</v>
       </c>
-      <c r="L40" s="7" t="n">
+      <c r="M40" s="3" t="n">
         <v>0.094885</v>
       </c>
-      <c r="M40" s="7" t="n">
+      <c r="N40" s="3" t="n">
         <v>0.1662</v>
       </c>
-      <c r="N40" s="7" t="n">
+      <c r="O40" s="3" t="n">
         <v>1.0466</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="P40" s="3" t="n">
         <v>1.0433</v>
       </c>
-      <c r="P40" s="7" t="n">
+      <c r="Q40" s="3" t="n">
         <v>1.0173</v>
       </c>
-      <c r="Q40" s="7" t="n">
+      <c r="R40" s="3" t="n">
         <v>1.141</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="41" s="4" spans="1:17">
-      <c r="A41" s="7" t="s">
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="1" spans="1:20">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.09826220239</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="3" t="n">
         <v>0.1826714282</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="3" t="n">
         <v>0.09133571408000001</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="3" t="n">
         <v>0.580620791159181</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.511490941047669</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="3" t="n">
         <v>0.962271087570104</v>
       </c>
-      <c r="H41" s="7" t="n">
+      <c r="H41" s="3" t="n">
         <v>1.2308217669529</v>
       </c>
-      <c r="I41" s="7" t="n">
+      <c r="I41" s="3" t="n">
         <v>1.01348703378211</v>
       </c>
-      <c r="J41" s="7" t="n">
-        <v>1.079396157636812</v>
-      </c>
-      <c r="K41" s="7" t="n">
+      <c r="J41" s="3" t="n">
+        <v>1.087435991157277</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1.078608289203032</v>
+      </c>
+      <c r="L41" s="3" t="n">
         <v>0.150069</v>
       </c>
-      <c r="L41" s="7" t="n">
+      <c r="M41" s="3" t="n">
         <v>0.054651</v>
       </c>
-      <c r="M41" s="7" t="n">
+      <c r="N41" s="3" t="n">
         <v>0.1347</v>
       </c>
-      <c r="N41" s="7" t="n">
+      <c r="O41" s="3" t="n">
         <v>1.0418</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="P41" s="3" t="n">
         <v>1.0158</v>
       </c>
-      <c r="P41" s="7" t="n">
+      <c r="Q41" s="3" t="n">
         <v>1.0081</v>
       </c>
-      <c r="Q41" s="7" t="n">
+      <c r="R41" s="3" t="n">
         <v>1.088</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="42" s="4" spans="1:17">
-      <c r="A42" s="7" t="s">
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="1" spans="1:20">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.7709722020000001</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="3" t="n">
         <v>0.6370894385</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="3" t="n">
         <v>0.3185447193</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="3" t="n">
         <v>1.06353316077183</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="3" t="n">
         <v>0.657269358634949</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="3" t="n">
         <v>1.16832017210633</v>
       </c>
-      <c r="H42" s="7" t="n">
+      <c r="H42" s="3" t="n">
         <v>1.32671567838769</v>
       </c>
-      <c r="I42" s="7" t="n">
+      <c r="I42" s="3" t="n">
         <v>1.156722512285425</v>
       </c>
-      <c r="J42" s="7" t="n">
-        <v>1.283139785967363</v>
-      </c>
-      <c r="K42" s="7" t="n">
+      <c r="J42" s="3" t="n">
+        <v>1.301196308909786</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1.29089308501988</v>
+      </c>
+      <c r="L42" s="3" t="n">
         <v>0.808068</v>
       </c>
-      <c r="L42" s="7" t="n">
+      <c r="M42" s="3" t="n">
         <v>0.586549</v>
       </c>
-      <c r="M42" s="7" t="n">
+      <c r="N42" s="3" t="n">
         <v>0.423</v>
       </c>
-      <c r="N42" s="7" t="n">
+      <c r="O42" s="3" t="n">
         <v>1.1729</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="P42" s="3" t="n">
         <v>1.2063</v>
       </c>
-      <c r="P42" s="7" t="n">
+      <c r="Q42" s="3" t="n">
         <v>1.1598</v>
       </c>
-      <c r="Q42" s="7" t="n">
+      <c r="R42" s="3" t="n">
         <v>1.3933</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="43" s="4" spans="1:17">
-      <c r="A43" s="7" t="s">
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="1" spans="1:20">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.07425265188000001</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="3" t="n">
         <v>0.150251094</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="3" t="n">
         <v>0.07512554702</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="3" t="n">
         <v>0.773781206062274</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="F43" s="3" t="n">
         <v>0.112682998180389</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="3" t="n">
         <v>1.11777021248184</v>
       </c>
-      <c r="H43" s="7" t="n">
+      <c r="H43" s="3" t="n">
         <v>1.22607865439623</v>
       </c>
-      <c r="I43" s="7" t="n">
+      <c r="I43" s="3" t="n">
         <v>1.010009299450114</v>
       </c>
-      <c r="J43" s="7" t="n">
-        <v>1.103562451573618</v>
-      </c>
-      <c r="K43" s="7" t="n">
+      <c r="J43" s="3" t="n">
+        <v>1.107641342645214</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>1.105264867023303</v>
+      </c>
+      <c r="L43" s="3" t="n">
         <v>0.141318</v>
       </c>
-      <c r="L43" s="7" t="n">
+      <c r="M43" s="3" t="n">
         <v>0.045588</v>
       </c>
-      <c r="M43" s="7" t="n">
+      <c r="N43" s="3" t="n">
         <v>0.1212</v>
       </c>
-      <c r="N43" s="7" t="n">
+      <c r="O43" s="3" t="n">
         <v>1.0399</v>
       </c>
-      <c r="O43" s="7" t="n">
+      <c r="P43" s="3" t="n">
         <v>1.0276</v>
       </c>
-      <c r="P43" s="7" t="n">
+      <c r="Q43" s="3" t="n">
         <v>1.0089</v>
       </c>
-      <c r="Q43" s="7" t="n">
+      <c r="R43" s="3" t="n">
         <v>1.0481</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="44" s="4" spans="1:17">
-      <c r="A44" s="7" t="s">
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="1" spans="1:20">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.1168722003</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="3" t="n">
         <v>0.267884277</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.1339421385</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="3" t="n">
         <v>1.03336648838448</v>
       </c>
-      <c r="F44" s="7" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.116859614849091</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.994305811631376</v>
       </c>
-      <c r="H44" s="7" t="n">
+      <c r="H44" s="3" t="n">
         <v>1.29560009826932</v>
       </c>
-      <c r="I44" s="7" t="n">
+      <c r="I44" s="3" t="n">
         <v>1.018801935402335</v>
       </c>
-      <c r="J44" s="7" t="n">
-        <v>1.178819697796486</v>
-      </c>
-      <c r="K44" s="7" t="n">
+      <c r="J44" s="3" t="n">
+        <v>1.187869092841323</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>1.181431586661488</v>
+      </c>
+      <c r="L44" s="3" t="n">
         <v>0.134147</v>
       </c>
-      <c r="L44" s="7" t="n">
+      <c r="M44" s="3" t="n">
         <v>0.108722</v>
       </c>
-      <c r="M44" s="7" t="n">
+      <c r="N44" s="3" t="n">
         <v>0.1524</v>
       </c>
-      <c r="N44" s="7" t="n">
+      <c r="O44" s="3" t="n">
         <v>1.0679</v>
       </c>
-      <c r="O44" s="7" t="n">
+      <c r="P44" s="3" t="n">
         <v>1.0353</v>
       </c>
-      <c r="P44" s="7" t="n">
+      <c r="Q44" s="3" t="n">
         <v>1.0069</v>
       </c>
-      <c r="Q44" s="7" t="n">
+      <c r="R44" s="3" t="n">
         <v>1.1297</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="45" s="4" spans="1:17">
-      <c r="A45" s="7" t="s">
+      <c r="S44" s="3" t="n"/>
+      <c r="T44" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="1" spans="1:20">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.2282080186</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="3" t="n">
         <v>0.1759299883</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.08796499416</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.8533238367081341</v>
       </c>
-      <c r="F45" s="7" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.163892984390259</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="3" t="n">
         <v>1.11294197563594</v>
       </c>
-      <c r="H45" s="7" t="n">
+      <c r="H45" s="3" t="n">
         <v>1.1891072218247</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="3" t="n">
         <v>1.018503560363076</v>
       </c>
-      <c r="J45" s="7" t="n">
-        <v>1.090317540107158</v>
-      </c>
-      <c r="K45" s="7" t="n">
+      <c r="J45" s="3" t="n">
+        <v>1.094057755591458</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>1.088365994419335</v>
+      </c>
+      <c r="L45" s="3" t="n">
         <v>0.267678</v>
       </c>
-      <c r="L45" s="7" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.090306</v>
       </c>
-      <c r="M45" s="7" t="n">
+      <c r="N45" s="3" t="n">
         <v>0.2045</v>
       </c>
-      <c r="N45" s="7" t="n">
+      <c r="O45" s="3" t="n">
         <v>1.0595</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="P45" s="3" t="n">
         <v>0.99199</v>
       </c>
-      <c r="P45" s="7" t="n">
+      <c r="Q45" s="3" t="n">
         <v>1.0164</v>
       </c>
-      <c r="Q45" s="7" t="n">
+      <c r="R45" s="3" t="n">
         <v>1.1512</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="46" s="4" spans="1:17">
-      <c r="A46" s="7" t="s">
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="1" spans="1:20">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.09152901434000001</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="3" t="n">
         <v>0.1693988551</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="3" t="n">
         <v>0.08469942757</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="3" t="n">
         <v>1.20713265679455</v>
       </c>
-      <c r="F46" s="7" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.0741821527481079</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="3" t="n">
         <v>1.07747433466454</v>
       </c>
-      <c r="H46" s="7" t="n">
+      <c r="H46" s="3" t="n">
         <v>1.25211107889656</v>
       </c>
-      <c r="I46" s="7" t="n">
+      <c r="I46" s="3" t="n">
         <v>1.016447555436272</v>
       </c>
-      <c r="J46" s="7" t="n">
-        <v>1.140925098026172</v>
-      </c>
-      <c r="K46" s="7" t="n">
+      <c r="J46" s="3" t="n">
+        <v>1.144171209176267</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>1.137642709946825</v>
+      </c>
+      <c r="L46" s="3" t="n">
         <v>0.147177</v>
       </c>
-      <c r="L46" s="7" t="n">
+      <c r="M46" s="3" t="n">
         <v>0.057561</v>
       </c>
-      <c r="M46" s="7" t="n">
+      <c r="N46" s="3" t="n">
         <v>0.151</v>
       </c>
-      <c r="N46" s="7" t="n">
+      <c r="O46" s="3" t="n">
         <v>1.0461</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="P46" s="3" t="n">
         <v>1.0955</v>
       </c>
-      <c r="P46" s="7" t="n">
+      <c r="Q46" s="3" t="n">
         <v>1.0096</v>
       </c>
-      <c r="Q46" s="7" t="n">
+      <c r="R46" s="3" t="n">
         <v>1.1423</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="47" s="4" spans="1:17">
-      <c r="A47" s="7" t="s">
+      <c r="S46" s="3" t="n"/>
+      <c r="T46" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="1" spans="1:20">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.09038854896</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="3" t="n">
         <v>0.2507056335</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="3" t="n">
         <v>0.1253528167</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="3" t="n">
         <v>1.46314823147365</v>
       </c>
-      <c r="F47" s="7" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.117231726646423</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="3" t="n">
         <v>1.07272613527464</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="3" t="n">
         <v>1.29287787667039</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="3" t="n">
         <v>1.017299694170477</v>
       </c>
-      <c r="J47" s="7" t="n">
-        <v>1.170044366684077</v>
-      </c>
-      <c r="K47" s="7" t="n">
+      <c r="J47" s="3" t="n">
+        <v>1.188940642188089</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>1.184163888331429</v>
+      </c>
+      <c r="L47" s="3" t="n">
         <v>0.115568</v>
       </c>
-      <c r="L47" s="7" t="n">
+      <c r="M47" s="3" t="n">
         <v>0.052385</v>
       </c>
-      <c r="M47" s="7" t="n">
+      <c r="N47" s="3" t="n">
         <v>0.129</v>
       </c>
-      <c r="N47" s="7" t="n">
+      <c r="O47" s="3" t="n">
         <v>1.0736</v>
       </c>
-      <c r="O47" s="7" t="n">
+      <c r="P47" s="3" t="n">
         <v>1.0134</v>
       </c>
-      <c r="P47" s="7" t="n">
+      <c r="Q47" s="3" t="n">
         <v>1.0078</v>
       </c>
-      <c r="Q47" s="7" t="n">
+      <c r="R47" s="3" t="n">
         <v>1.1266</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="48" s="4" spans="1:17">
-      <c r="A48" s="7" t="s">
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="1" spans="1:20">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.1468535704</v>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="3" t="n">
         <v>0.2011311974</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="3" t="n">
         <v>0.1005655987</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="3" t="n">
         <v>0.849356919909808</v>
       </c>
-      <c r="F48" s="7" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.174073398113251</v>
       </c>
-      <c r="G48" s="7" t="n">
+      <c r="G48" s="3" t="n">
         <v>1.05779917814769</v>
       </c>
-      <c r="H48" s="7" t="n">
+      <c r="H48" s="3" t="n">
         <v>1.24464350443238</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="3" t="n">
         <v>1.01930837352672</v>
       </c>
-      <c r="J48" s="7" t="n">
-        <v>1.125954282374255</v>
-      </c>
-      <c r="K48" s="7" t="n">
+      <c r="J48" s="3" t="n">
+        <v>1.136179538605536</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1.127435398460377</v>
+      </c>
+      <c r="L48" s="3" t="n">
         <v>0.181849</v>
       </c>
-      <c r="L48" s="7" t="n">
+      <c r="M48" s="3" t="n">
         <v>0.070202</v>
       </c>
-      <c r="M48" s="7" t="n">
+      <c r="N48" s="3" t="n">
         <v>0.1919</v>
       </c>
-      <c r="N48" s="7" t="n">
+      <c r="O48" s="3" t="n">
         <v>1.06</v>
       </c>
-      <c r="O48" s="7" t="n">
+      <c r="P48" s="3" t="n">
         <v>1.0554</v>
       </c>
-      <c r="P48" s="7" t="n">
+      <c r="Q48" s="3" t="n">
         <v>1.0136</v>
       </c>
-      <c r="Q48" s="7" t="n">
+      <c r="R48" s="3" t="n">
         <v>1.213</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" s="4" spans="1:17">
-      <c r="A49" s="7" t="s">
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="1" spans="1:20">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.07520457236</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="3" t="n">
         <v>0.1246032765</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="3" t="n">
         <v>0.06230163826</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="3" t="n">
         <v>1.1988591552066</v>
       </c>
-      <c r="F49" s="7" t="n">
+      <c r="F49" s="3" t="n">
         <v>0.0926322340965271</v>
       </c>
-      <c r="G49" s="7" t="n">
+      <c r="G49" s="3" t="n">
         <v>1.13038929726769</v>
       </c>
-      <c r="H49" s="7" t="n">
+      <c r="H49" s="3" t="n">
         <v>1.20973294771718</v>
       </c>
-      <c r="I49" s="7" t="n">
+      <c r="I49" s="3" t="n">
         <v>1.010466788326496</v>
       </c>
-      <c r="J49" s="7" t="n">
-        <v>1.131508631762619</v>
-      </c>
-      <c r="K49" s="7" t="n">
+      <c r="J49" s="3" t="n">
+        <v>1.136656973761252</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1.138691517560746</v>
+      </c>
+      <c r="L49" s="3" t="n">
         <v>0.150563</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="M49" s="3" t="n">
         <v>0.041324</v>
       </c>
-      <c r="M49" s="7" t="n">
+      <c r="N49" s="3" t="n">
         <v>0.148</v>
       </c>
-      <c r="N49" s="7" t="n">
+      <c r="O49" s="3" t="n">
         <v>1.0522</v>
       </c>
-      <c r="O49" s="7" t="n">
+      <c r="P49" s="3" t="n">
         <v>1.0624</v>
       </c>
-      <c r="P49" s="7" t="n">
+      <c r="Q49" s="3" t="n">
         <v>1.0099</v>
       </c>
-      <c r="Q49" s="7" t="n">
+      <c r="R49" s="3" t="n">
         <v>1.1139</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="50" s="4" spans="1:17">
-      <c r="A50" s="7" t="s">
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="1" spans="1:20">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="7" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.1104965212</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="3" t="n">
         <v>0.23137033</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.115685165</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="3" t="n">
         <v>0.9997877847754461</v>
       </c>
-      <c r="F50" s="7" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.309651911258698</v>
       </c>
-      <c r="G50" s="7" t="n">
+      <c r="G50" s="3" t="n">
         <v>0.956981053970262</v>
       </c>
-      <c r="H50" s="7" t="n">
+      <c r="H50" s="3" t="n">
         <v>1.28672981662228</v>
       </c>
-      <c r="I50" s="7" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.020309764390565</v>
       </c>
-      <c r="J50" s="7" t="n">
-        <v>1.173512762326156</v>
-      </c>
-      <c r="K50" s="7" t="n">
+      <c r="J50" s="3" t="n">
+        <v>1.20034675900296</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1.188645874449112</v>
+      </c>
+      <c r="L50" s="3" t="n">
         <v>0.135857</v>
       </c>
-      <c r="L50" s="7" t="n">
+      <c r="M50" s="3" t="n">
         <v>0.089393</v>
       </c>
-      <c r="M50" s="7" t="n">
+      <c r="N50" s="3" t="n">
         <v>0.1653</v>
       </c>
-      <c r="N50" s="7" t="n">
+      <c r="O50" s="3" t="n">
         <v>1.072</v>
       </c>
-      <c r="O50" s="7" t="n">
+      <c r="P50" s="3" t="n">
         <v>1.0829</v>
       </c>
-      <c r="P50" s="7" t="n">
+      <c r="Q50" s="3" t="n">
         <v>1.0086</v>
       </c>
-      <c r="Q50" s="7" t="n">
+      <c r="R50" s="3" t="n">
         <v>1.104</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="51" s="4" spans="1:17">
-      <c r="A51" s="7" t="s">
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="1" spans="1:20">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="7" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.2159043889</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="3" t="n">
         <v>0.1728632884</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="3" t="n">
         <v>0.08643164421000001</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="3" t="n">
         <v>1.09606160034447</v>
       </c>
-      <c r="F51" s="7" t="n">
+      <c r="F51" s="3" t="n">
         <v>0.130170226097107</v>
       </c>
-      <c r="G51" s="7" t="n">
+      <c r="G51" s="3" t="n">
         <v>1.05833465454716</v>
       </c>
-      <c r="H51" s="7" t="n">
+      <c r="H51" s="3" t="n">
         <v>1.21558423616718</v>
       </c>
-      <c r="I51" s="7" t="n">
+      <c r="I51" s="3" t="n">
         <v>1.018436090543426</v>
       </c>
-      <c r="J51" s="7" t="n">
-        <v>1.116447235686469</v>
-      </c>
-      <c r="K51" s="7" t="n">
+      <c r="J51" s="3" t="n">
+        <v>1.114377705740619</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1.119833609083769</v>
+      </c>
+      <c r="L51" s="3" t="n">
         <v>0.259719</v>
       </c>
-      <c r="L51" s="7" t="n">
+      <c r="M51" s="3" t="n">
         <v>0.100384</v>
       </c>
-      <c r="M51" s="7" t="n">
+      <c r="N51" s="3" t="n">
         <v>0.2003</v>
       </c>
-      <c r="N51" s="7" t="n">
+      <c r="O51" s="3" t="n">
         <v>1.0327</v>
       </c>
-      <c r="O51" s="7" t="n">
+      <c r="P51" s="3" t="n">
         <v>1.0936</v>
       </c>
-      <c r="P51" s="7" t="n">
+      <c r="Q51" s="3" t="n">
         <v>1.0152</v>
       </c>
-      <c r="Q51" s="7" t="n">
+      <c r="R51" s="3" t="n">
         <v>1.1271</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="52" s="4" spans="1:17">
-      <c r="A52" s="7" t="s">
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="1" spans="1:20">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.1274937937</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="3" t="n">
         <v>0.1799195059</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="3" t="n">
         <v>0.08995975296</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="3" t="n">
         <v>1.02813077318591</v>
       </c>
-      <c r="F52" s="7" t="n">
+      <c r="F52" s="3" t="n">
         <v>0.18578439950943</v>
       </c>
-      <c r="G52" s="7" t="n">
+      <c r="G52" s="3" t="n">
         <v>1.08903809760491</v>
       </c>
-      <c r="H52" s="7" t="n">
+      <c r="H52" s="3" t="n">
         <v>1.30511168893473</v>
       </c>
-      <c r="I52" s="7" t="n">
+      <c r="I52" s="3" t="n">
         <v>1.021838575914035</v>
       </c>
-      <c r="J52" s="7" t="n">
-        <v>1.166779832419381</v>
-      </c>
-      <c r="K52" s="7" t="n">
+      <c r="J52" s="3" t="n">
+        <v>1.185352495079474</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>1.17859203583796</v>
+      </c>
+      <c r="L52" s="3" t="n">
         <v>0.181312</v>
       </c>
-      <c r="L52" s="7" t="n">
+      <c r="M52" s="3" t="n">
         <v>0.121827</v>
       </c>
-      <c r="M52" s="7" t="n">
+      <c r="N52" s="3" t="n">
         <v>0.198</v>
       </c>
-      <c r="N52" s="7" t="n">
+      <c r="O52" s="3" t="n">
         <v>1.0683</v>
       </c>
-      <c r="O52" s="7" t="n">
+      <c r="P52" s="3" t="n">
         <v>1.0613</v>
       </c>
-      <c r="P52" s="7" t="n">
+      <c r="Q52" s="3" t="n">
         <v>1.0144</v>
       </c>
-      <c r="Q52" s="7" t="n">
+      <c r="R52" s="3" t="n">
         <v>1.2264</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="53" s="4" spans="1:17">
-      <c r="A53" s="7" t="s">
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="1" spans="1:20">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.1158274421</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="3" t="n">
         <v>0.2432289023</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="3" t="n">
         <v>0.1216144512</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="3" t="n">
         <v>1.30582338629273</v>
       </c>
-      <c r="F53" s="7" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.247429728507996</v>
       </c>
-      <c r="G53" s="7" t="n">
+      <c r="G53" s="3" t="n">
         <v>1.02267095141219</v>
       </c>
-      <c r="H53" s="7" t="n">
+      <c r="H53" s="3" t="n">
         <v>1.24660672619745</v>
       </c>
-      <c r="I53" s="7" t="n">
+      <c r="I53" s="3" t="n">
         <v>1.026131294773674</v>
       </c>
-      <c r="J53" s="7" t="n">
-        <v>1.130835591650151</v>
-      </c>
-      <c r="K53" s="7" t="n">
+      <c r="J53" s="3" t="n">
+        <v>1.146498466984132</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1.136265222796421</v>
+      </c>
+      <c r="L53" s="3" t="n">
         <v>0.137841</v>
       </c>
-      <c r="L53" s="7" t="n">
+      <c r="M53" s="3" t="n">
         <v>0.070685</v>
       </c>
-      <c r="M53" s="7" t="n">
+      <c r="N53" s="3" t="n">
         <v>0.1503</v>
       </c>
-      <c r="N53" s="7" t="n">
+      <c r="O53" s="3" t="n">
         <v>1.0496</v>
       </c>
-      <c r="O53" s="7" t="n">
+      <c r="P53" s="3" t="n">
         <v>1.0305</v>
       </c>
-      <c r="P53" s="7" t="n">
+      <c r="Q53" s="3" t="n">
         <v>1.0075</v>
       </c>
-      <c r="Q53" s="7" t="n">
+      <c r="R53" s="3" t="n">
         <v>1.0517</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="54" s="4" spans="1:17">
-      <c r="A54" s="7" t="s">
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="1" spans="1:20">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.1048414287</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="3" t="n">
         <v>0.1519114029</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="3" t="n">
         <v>0.07595570145</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="3" t="n">
         <v>0.946028308903082</v>
       </c>
-      <c r="F54" s="7" t="n">
+      <c r="F54" s="3" t="n">
         <v>0.35578840970993</v>
       </c>
-      <c r="G54" s="7" t="n">
+      <c r="G54" s="3" t="n">
         <v>1.07642217859994</v>
       </c>
-      <c r="H54" s="7" t="n">
+      <c r="H54" s="3" t="n">
         <v>1.24047390533406</v>
       </c>
-      <c r="I54" s="7" t="n">
+      <c r="I54" s="3" t="n">
         <v>1.017713117911833</v>
       </c>
-      <c r="J54" s="7" t="n">
-        <v>1.153511716455546</v>
-      </c>
-      <c r="K54" s="7" t="n">
+      <c r="J54" s="3" t="n">
+        <v>1.155125398136151</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>1.157482308027146</v>
+      </c>
+      <c r="L54" s="3" t="n">
         <v>0.157883</v>
       </c>
-      <c r="L54" s="7" t="n">
+      <c r="M54" s="3" t="n">
         <v>0.066898</v>
       </c>
-      <c r="M54" s="7" t="n">
+      <c r="N54" s="3" t="n">
         <v>0.1714</v>
       </c>
-      <c r="N54" s="7" t="n">
+      <c r="O54" s="3" t="n">
         <v>1.0562</v>
       </c>
-      <c r="O54" s="7" t="n">
+      <c r="P54" s="3" t="n">
         <v>1.0771</v>
       </c>
-      <c r="P54" s="7" t="n">
+      <c r="Q54" s="3" t="n">
         <v>1.0106</v>
       </c>
-      <c r="Q54" s="7" t="n">
+      <c r="R54" s="3" t="n">
         <v>1.1732</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="55" s="4" spans="1:17">
-      <c r="A55" s="7" t="s">
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="1" spans="1:20">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.3814890418</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="3" t="n">
         <v>0.1232482143</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" s="3" t="n">
         <v>0.06162410713</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="3" t="n">
         <v>1.10246410816228</v>
       </c>
-      <c r="F55" s="7" t="n">
+      <c r="F55" s="3" t="n">
         <v>0.31164813041687</v>
       </c>
-      <c r="G55" s="7" t="n">
+      <c r="G55" s="3" t="n">
         <v>1.07134637564687</v>
       </c>
-      <c r="H55" s="7" t="n">
+      <c r="H55" s="3" t="n">
         <v>1.23077854651419</v>
       </c>
-      <c r="I55" s="7" t="n">
+      <c r="I55" s="3" t="n">
         <v>1.041306028940817</v>
       </c>
-      <c r="J55" s="7" t="n">
-        <v>1.170362411708249</v>
-      </c>
-      <c r="K55" s="7" t="n">
+      <c r="J55" s="3" t="n">
+        <v>1.179182998284652</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1.170928978342789</v>
+      </c>
+      <c r="L55" s="3" t="n">
         <v>0.436832</v>
       </c>
-      <c r="L55" s="7" t="n">
+      <c r="M55" s="3" t="n">
         <v>0.149298</v>
       </c>
-      <c r="M55" s="7" t="n">
+      <c r="N55" s="3" t="n">
         <v>0.3073</v>
       </c>
-      <c r="N55" s="7" t="n">
+      <c r="O55" s="3" t="n">
         <v>1.0964</v>
       </c>
-      <c r="O55" s="7" t="n">
+      <c r="P55" s="3" t="n">
         <v>1.1058</v>
       </c>
-      <c r="P55" s="7" t="n">
+      <c r="Q55" s="3" t="n">
         <v>1.0648</v>
       </c>
-      <c r="Q55" s="7" t="n">
+      <c r="R55" s="3" t="n">
         <v>1.2443</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="56" s="4" spans="1:17">
-      <c r="A56" s="7" t="s">
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="1" spans="1:20">
+      <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="3" t="n">
         <v>0.2574562702</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="3" t="n">
         <v>0.2399647375</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" s="3" t="n">
         <v>0.1199823687</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="3" t="n">
         <v>0.890744313620743</v>
       </c>
-      <c r="F56" s="7" t="n">
+      <c r="F56" s="3" t="n">
         <v>0.135001242160797</v>
       </c>
-      <c r="G56" s="7" t="n">
+      <c r="G56" s="3" t="n">
         <v>1.02810084591398</v>
       </c>
-      <c r="H56" s="7" t="n">
+      <c r="H56" s="3" t="n">
         <v>1.22764775218966</v>
       </c>
-      <c r="I56" s="7" t="n">
+      <c r="I56" s="3" t="n">
         <v>1.031879733785332</v>
       </c>
-      <c r="J56" s="7" t="n">
-        <v>1.115551582424335</v>
-      </c>
-      <c r="K56" s="7" t="n">
+      <c r="J56" s="3" t="n">
+        <v>1.120527475985943</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>1.122263915068264</v>
+      </c>
+      <c r="L56" s="3" t="n">
         <v>0.288172</v>
       </c>
-      <c r="L56" s="7" t="n">
+      <c r="M56" s="3" t="n">
         <v>0.120387</v>
       </c>
-      <c r="M56" s="7" t="n">
+      <c r="N56" s="3" t="n">
         <v>0.2293</v>
       </c>
-      <c r="N56" s="7" t="n">
+      <c r="O56" s="3" t="n">
         <v>1.0499</v>
       </c>
-      <c r="O56" s="7" t="n">
+      <c r="P56" s="3" t="n">
         <v>1.0852</v>
       </c>
-      <c r="P56" s="7" t="n">
+      <c r="Q56" s="3" t="n">
         <v>1.0272</v>
       </c>
-      <c r="Q56" s="7" t="n">
+      <c r="R56" s="3" t="n">
         <v>1.1492</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="57" s="4" spans="1:17">
-      <c r="A57" s="7" t="s">
+      <c r="S56" s="3" t="n"/>
+      <c r="T56" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="1" spans="1:20">
+      <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="3" t="n">
         <v>0.902123707</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="3" t="n">
         <v>1.17733969</v>
       </c>
-      <c r="D57" s="7" t="n">
+      <c r="D57" s="3" t="n">
         <v>0.5886698452</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="3" t="n">
         <v>0.938277974274708</v>
       </c>
-      <c r="F57" s="7" t="n">
+      <c r="F57" s="3" t="n">
         <v>0.551805973052979</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G57" s="3" t="n">
         <v>1.26666650438785</v>
       </c>
-      <c r="H57" s="7" t="n">
+      <c r="H57" s="3" t="n">
         <v>1.479587486562</v>
       </c>
-      <c r="I57" s="7" t="n">
+      <c r="I57" s="3" t="n">
         <v>1.253308722204117</v>
       </c>
-      <c r="J57" s="7" t="n">
-        <v>1.381684489491093</v>
-      </c>
-      <c r="K57" s="7" t="n">
+      <c r="J57" s="3" t="n">
+        <v>1.371609819019616</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>1.371805162506092</v>
+      </c>
+      <c r="L57" s="3" t="n">
         <v>0.929749</v>
       </c>
-      <c r="L57" s="7" t="n">
+      <c r="M57" s="3" t="n">
         <v>0.8644500000000001</v>
       </c>
-      <c r="M57" s="7" t="n">
+      <c r="N57" s="3" t="n">
         <v>0.5694</v>
       </c>
-      <c r="N57" s="7" t="n">
+      <c r="O57" s="3" t="n">
         <v>1.2855</v>
       </c>
-      <c r="O57" s="7" t="n">
+      <c r="P57" s="3" t="n">
         <v>1.3863</v>
       </c>
-      <c r="P57" s="7" t="n">
+      <c r="Q57" s="3" t="n">
         <v>1.4753</v>
       </c>
-      <c r="Q57" s="7" t="n">
+      <c r="R57" s="3" t="n">
         <v>1.5634</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" s="4" spans="1:17">
-      <c r="A58" s="7" t="s">
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="1" spans="1:20">
+      <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="3" t="n">
         <v>0.2257776616</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="3" t="n">
         <v>0.1538952515</v>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="D58" s="3" t="n">
         <v>0.07694762573</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="3" t="n">
         <v>0.804852288077794</v>
       </c>
-      <c r="F58" s="7" t="n">
+      <c r="F58" s="3" t="n">
         <v>0.473423898220062</v>
       </c>
-      <c r="G58" s="7" t="n">
+      <c r="G58" s="3" t="n">
         <v>1.00300774848088</v>
       </c>
-      <c r="H58" s="7" t="n">
+      <c r="H58" s="3" t="n">
         <v>1.2964070183644</v>
       </c>
-      <c r="I58" s="7" t="n">
+      <c r="I58" s="3" t="n">
         <v>1.031549791198008</v>
       </c>
-      <c r="J58" s="7" t="n">
-        <v>1.152757920475588</v>
-      </c>
-      <c r="K58" s="7" t="n">
+      <c r="J58" s="3" t="n">
+        <v>1.156207286094206</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>1.155412341971265</v>
+      </c>
+      <c r="L58" s="3" t="n">
         <v>0.283258</v>
       </c>
-      <c r="L58" s="7" t="n">
+      <c r="M58" s="3" t="n">
         <v>0.154595</v>
       </c>
-      <c r="M58" s="7" t="n">
+      <c r="N58" s="3" t="n">
         <v>0.2424</v>
       </c>
-      <c r="N58" s="7" t="n">
+      <c r="O58" s="3" t="n">
         <v>1.0773</v>
       </c>
-      <c r="O58" s="7" t="n">
+      <c r="P58" s="3" t="n">
         <v>1.1079</v>
       </c>
-      <c r="P58" s="7" t="n">
+      <c r="Q58" s="3" t="n">
         <v>1.0468</v>
       </c>
-      <c r="Q58" s="7" t="n">
+      <c r="R58" s="3" t="n">
         <v>1.1988</v>
       </c>
+      <c r="S58" s="3" t="n"/>
+      <c r="T58" s="3" t="n"/>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Python/Comparacao_Contours57EDG.xlsx
+++ b/Python/Comparacao_Contours57EDG.xlsx
@@ -6,16 +6,17 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.001" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -29,13 +30,10 @@
     <t>normalized_si</t>
   </si>
   <si>
-    <t>new_si</t>
-  </si>
-  <si>
     <t>fourier_factor</t>
   </si>
   <si>
-    <t>fd_2Dbox.1</t>
+    <t>fd_2Dbox</t>
   </si>
   <si>
     <t>fd_1Dbox</t>
@@ -238,13 +236,19 @@
   <si>
     <t>C64_97RCROI.jpg</t>
   </si>
+  <si>
+    <t>new_si</t>
+  </si>
+  <si>
+    <t>fd_2Dbox.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -254,6 +258,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -275,12 +290,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -309,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -317,6 +347,16 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -616,9 +656,2934 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:P58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="28.85546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.85546875"/>
+    <col customWidth="1" max="4" min="3" style="1" width="20.5703125"/>
+    <col customWidth="1" max="11" min="5" style="1" width="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0.265280715640087</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.998415965229409</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.499207982614705</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.01886796951293945</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1.064710876730309</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1.237145662851074</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1.032378700272062</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1.108378576770624</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.164661</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.049462</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.0504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0424</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.0098</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.216254559072478</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.77160740906301</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.385803704531505</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.3254836797714233</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1.08542526382001</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1.224655170552526</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1.028640551995282</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1.108932819049492</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.192264</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.039058</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.0423</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0619</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.170665128940032</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.747844233823892</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.373922116911946</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.3768628239631653</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1.072192093533196</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1.263203929460456</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1.028483885563677</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.141582394304526</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.108984</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.041676</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9819</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.234123956565054</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.987761857510574</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.493880928755287</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.4095145463943481</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1.031623018777031</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1.232060615384724</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1.02692357448901</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1.132472731039094</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.1211</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.032753</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1301</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0545</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0554</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.407717390541613</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.8692850264011029</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.434642513200552</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.01162797212600708</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.9705280009888418</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1.195863775503027</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1.05611978319967</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1.086898399274313</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.293885</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.084442</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0939</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.0151</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.176866605614281</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.757138466448438</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.378569233224219</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.2845017313957214</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1.024048692853663</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1.249399661795891</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1.028571323879199</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1.17142408907887</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.172516</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0.085936</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1837</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.0462</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.0145</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.1257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.23323437167415</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.996796475591722</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.498398237795861</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.003325939178466797</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.9805831869309156</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1.26149499998431</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.030764640344306</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1.111518186279226</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.134718</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0.066605</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1277</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.0539</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.1129</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.0069</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.278110348932905</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.975096114229534</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.487548057114767</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.06578946113586426</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1.057266604307014</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1.240399566395587</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1.038994781402113</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.106983483493177</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.156901</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.048622</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.0331</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0422</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.0077</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.0657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.267982269877</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.986137953538111</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.493068976769056</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.01717895269393921</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1.022384594525379</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1.249322764040855</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1.04029316125352</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1.124309710665616</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.173177</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.09168900000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.0412</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.1037</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0089</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.1467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.51908256208633</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1.06183385325141</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.530916926625707</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.1276193261146545</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.9850332595789294</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1.195908949494002</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1.05080265186056</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1.098334327759868</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0.512282</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.164396</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.0263</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.0916</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0319</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.2199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>0.206025775507651</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.681924014531727</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.340962007265864</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.317328929901123</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1.093575605050025</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1.215124860581169</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1.02768312578425</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1.117619071146254</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.227223</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0.07985</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.0465</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.0908</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.0168</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.1391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>0.220226176469171</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.00526873562986</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.50263436781493</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.05502396821975708</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.9967819617227726</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1.295765786623974</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1.044272928535915</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1.113009161120373</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.146445</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.070328</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1617</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.1053</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.0094</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.1173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>0.123648491063182</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.505390831336602</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.252695415668301</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.1492674350738525</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1.034639391691894</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1.27403627511046</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1.024877665623869</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1.128053805907751</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.193754</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0.126376</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2046</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.0596</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0951</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.0204</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.1708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.16954101136717</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.755236441438043</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.377618220719022</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.0597270131111145</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1.032217844087449</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1.277080633170719</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1.028276914938379</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1.121020437445739</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.117996</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0.02417</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1175</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.0575</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.95445</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0063</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0.221474966748942</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>1.00866186412759</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.504330932063797</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.04838711023330688</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1.029316066371724</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1.275226985062532</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1.027728266553341</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1.106960080217259</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.107209</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0.042299</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.0683</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0174</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.0057</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.1191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>0.194808322904002</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.756023270538612</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.378011635269306</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.01384085416793823</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1.025935168938177</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1.222504574023161</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1.040609349759898</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1.120772525074362</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.156121</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.123487</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.0423</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0478</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.0109</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.1278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0.217615942131924</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>1.00328127600054</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.501640638000268</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.02678579092025757</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1.014732994683118</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1.283726251246101</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1.037702839438386</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1.124582249744613</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0.157629</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0.103867</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1833</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.0667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.0788</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.0102</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.1505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0.216877567367448</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.0025274121073</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.501263706053648</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.03149604797363281</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.9992146674194214</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1.302267862176489</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1.043052722021341</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1.11859052231551</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0.119112</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0.065358</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1306</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0683</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.1176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0.232478707944717</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.01571541666162</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.507857708330809</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.003401279449462891</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.9944891922013707</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1.255799404020044</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1.046065016257306</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1.154094753907493</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0.258092</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>0.184672</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2358</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.1129</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.0253</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.1883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0.166079047069996</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.69439360635111</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.347196803175555</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.3031324744224548</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1.007156268018019</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1.236210248756323</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1.032079039945208</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1.144918131654677</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.199853</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0.118254</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1988</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.0514</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0936</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.0216</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.1596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>0.121575379360591</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.514827801213896</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.257413900606948</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.1798272728919983</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.9909362753361944</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1.249043709147726</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1.027488916021646</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1.161837096751382</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0.146217</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.06458</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.0336</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.0296</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.0102</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.1156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.06818181276321411</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.9847110208893262</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1.247856063604127</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1.035461180246668</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1.150302676374177</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0.840909</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0.730239</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4477</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.2189</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.3031</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3204</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0.227618627238844</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.994071868515163</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.497035934257581</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.02709358930587769</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1.010139448611336</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1.268342700336109</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>1.048219444667908</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1.126713326885154</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.830017</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>0.73467</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4912</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1653</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.2857</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2547</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.4325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>0.266079201471101</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.06830129032429</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.5341506451621441</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.118461549282074</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.9648004667474348</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1.237620737502122</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1.048209912947209</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1.126338778965323</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0.28192</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0.274553</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2419</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.0624</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.0194</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.0119</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>0.19588174903419</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.761115106251962</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.380557553125981</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.1968557238578796</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1.013157558163594</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1.21280079973747</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>1.034247662975033</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1.088245077085988</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0.623309</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1053</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.2162</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.1299</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.2877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>0.163979652483603</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.735304957518929</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.367652478759465</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.05642020702362061</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1.023563755477471</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1.281730509742851</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>1.039820669944307</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1.142770022179782</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0.546529</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>0.489224</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1257</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.2715</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.1682</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.3916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>0.326603160819427</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>1.00360275680129</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.501801378400643</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.3962212800979614</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1.072160530594932</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1.189848587696309</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>1.043207773127149</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1.08501802310311</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>0.874788</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>0.742903</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4781</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.2301</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.2662</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.3113</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.5305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>0.230945580831266</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.990920919488168</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.495460459744084</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.02533328533172607</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1.075766036069571</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1.24476793844412</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>1.036104923766571</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1.131853109542224</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>0.892909</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>0.7276820000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.3497</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3954</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.6324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>0.42593221543212</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>1.50267565858564</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.751337829292818</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.1544526219367981</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1.008875260513909</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1.208360146159234</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>1.041687580503844</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1.109122802065102</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0.986097</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>0.614686</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6996</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.4454</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.4893</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.7286</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.4917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>0.46228028524036</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>1.50244602679708</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.751223013398541</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.4772204756736755</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.958712229109547</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1.152913740026777</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1.049121452283736</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1.069729989799684</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0.9574279999999999</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>0.800991</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.3235</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.3818</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.4904</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.5091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.181963412220726</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.732412198028898</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.366206099014449</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.255267322063446</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1.075297254011681</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1.214769406657025</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1.020814960800308</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1.149703444849421</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0.611714</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>0.42632</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.2521</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.9172800393438262</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1.145784185285603</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1.059298863230416</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1.078403876374626</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>0.978085</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>0.73763</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6365</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.4123</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.4712</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5125</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>0.45716373515354</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>1.51107843217755</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0.7555392160887729</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.2835069298744202</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1.05782230422314</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1.205112227422384</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1.056262705886579</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1.094843374970289</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>0.9160239999999999</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>0.85323</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.2678</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.3787</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.4181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>0.230744019594886</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>1.01490928302899</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>0.507454641514494</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0.03784859180450439</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1.078243819052056</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1.246408364394273</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1.039056858429132</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1.137832717567309</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0.866406</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>0.774961</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.1887</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.2503</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.3195</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.4243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>0.357322760770175</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>0.953267013485163</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0.476633506742582</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.01206225156784058</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1.069584609038188</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1.215754674114548</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>1.030303912560631</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1.077769236716082</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>0.7553800000000001</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>0.443559</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4039</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1597</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.2016</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.1954</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.3998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>0.464142505303184</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>1.51264077933071</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.756320389665357</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.4343478679656982</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1.092605442054684</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1.19879693376993</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>1.038868999381524</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1.09252275483874</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>0.93923</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>0.625335</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5962</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.3221</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.2942</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4153</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.3739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>0.241218244262333</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0.994035080762562</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.497017540381281</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.0547945499420166</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1.080361899945406</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1.228637297481367</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>1.031525952349144</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1.123612381997549</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>0.131583</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>0.042846</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1387</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.0331</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.0275</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.0069</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.0838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>0.178400442597498</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.730401569925066</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.365200784962533</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0.3150606751441956</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1.016444194123504</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1.233625713184323</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>1.02417529687567</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1.148636081311341</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>0.233445</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>0.083718</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.2058</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.0372</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.0713</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.0223</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>0.254583818724414</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>1.03493798260361</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0.517468991301807</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.02861446142196655</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1.100989013297355</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1.22997633041264</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>1.039094109320517</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1.144737640692934</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>0.174751</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>0.094885</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.0466</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.0433</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.0173</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>0.254615596032867</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>0.990130374831226</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0.495065187415613</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0.041176438331604</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1.000656860203818</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1.247484298338069</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>1.028414025803222</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1.114891012516568</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>0.150069</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>0.054651</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.0418</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.0158</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.0081</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>0.334984481861992</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>1.07794737389065</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>0.538973686945326</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0.09677422046661377</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1.066559568150838</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1.24026191682808</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1.041090728976352</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1.102549843624707</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>0.808068</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>0.586549</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1729</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.2063</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.1598</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.3933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>0.242952391535904</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1.00168061739801</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.500840308699003</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0.0116279125213623</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1.102742105092562</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1.269273656265513</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>1.034987381827528</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1.110821494379868</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>0.141318</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>0.045588</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.0399</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.0276</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.0089</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.0481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>0.220268386173676</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>1.004462847527</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.5022314237634971</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0.01379311084747314</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0.9465505475559769</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1.271586227858048</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>1.029716878064725</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1.119311778610378</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>0.134147</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>0.108722</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.0679</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.0353</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.0069</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.1297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>0.299336536458906</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.9631117617395391</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.48155588086977</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.01929259300231934</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1.086180533609386</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1.227668535598571</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>1.029448674191873</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1.088811538132886</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>0.267678</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>0.090306</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.2045</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.0595</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.99199</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.0164</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.1512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>0.236460371499095</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>0.996295117606241</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0.49814755880312</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0.04121303558349609</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1.054073459399699</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1.230032828326281</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>1.028937905065773</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1.135662171579893</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>0.147177</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>0.057561</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.0461</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.0955</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.0096</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.1423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>0.22752214089785</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>1.01231264609558</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0.506156323047792</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0.03773581981658936</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1.033002101025631</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.261515468074384</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>1.033229945384212</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1.127075029534922</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>0.115568</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>0.052385</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.0736</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.0134</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.0078</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.1266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>0.238658185709189</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>0.996982371738246</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>0.498491185869123</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0.005586564540863037</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1.036429304448822</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1.254717939158959</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>1.033016380731268</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1.137364167554679</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>0.181849</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>0.070202</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.0554</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.0136</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>0.233624934200105</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>1.00040890856168</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0.500204454280839</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0.01575928926467896</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1.09475458546897</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1.248642849151657</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>1.02887637025197</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1.120896168529854</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>0.150563</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>0.041324</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.0522</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.0624</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.0099</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.1139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>0.115032881984616</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>0.552168810157762</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0.276084405078881</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0.08208948373794556</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.9719121346163525</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1.268062289924466</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>1.030325693273312</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>1.149091242405362</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0.135857</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>0.089393</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1653</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.0829</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.0086</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>0.244299621434935</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>0.698732812785035</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0.349366406392517</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0.05879288911819458</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1.028784261669907</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.197883912662957</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>1.035637644462142</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1.140524103793539</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>0.259719</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>0.100384</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2003</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.0936</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.0152</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.1271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>0.221949123575773</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>1.00492337836008</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0.502461689180038</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0.02702701091766357</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1.07475052320595</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1.274383444365515</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>1.034271274684962</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1.117468552382375</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>0.181312</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>0.121827</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.0683</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.0613</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.0144</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.2264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>0.1648729712204</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0.7267706545548061</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0.363385327277403</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.35529625415802</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1.005088998143111</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1.24951155803856</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>1.026768490989112</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1.153529137589985</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>0.137841</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>0.070685</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.0496</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.0305</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.0517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>0.174481637309617</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0.742573414456889</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0.371286707228445</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0.3061417937278748</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1.068153218892287</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1.254161855503633</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>1.029455243944072</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1.128451300741967</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>0.157883</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>0.066898</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.0562</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.0771</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.0106</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.1732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>0.176378165755062</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>0.71925342157081</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>0.359626710785405</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0.2485644221305847</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1.031280000823629</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1.24115758943038</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>1.022527988699513</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>1.134491243211442</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>0.436832</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>0.149298</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3073</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.0964</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.1058</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.0648</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.2443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>0.298267324350885</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>1.05718669638221</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>0.528593348191107</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0.08386075496673584</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1.024656995282622</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1.210032836286321</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>1.038910062538002</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1.101048485843161</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>0.288172</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>0.120387</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.2293</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.0499</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.0852</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.0272</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.1492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>0.427475406698826</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>1.50286248523902</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>0.751431242619507</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0.4795489311218262</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1.064074660213135</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1.223195548545241</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>1.045865378606391</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>1.088967686607036</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>0.929749</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>0.8644500000000001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.5694</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.2855</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.3863</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.4753</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.5634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>0.167103232653532</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>0.727497392654735</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>0.363748696327367</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>0.3747004270553589</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1.063025872872332</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1.261825019549455</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>1.022598364299181</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>1.119586231863696</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>0.283258</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>0.154595</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.2424</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.0773</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.1079</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.0468</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.1988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -653,53 +3618,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="S1" s="2" t="n"/>
       <c r="T1" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="2" s="1" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>0.101611134687057</v>
@@ -757,7 +3722,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="3" s="1" spans="1:20">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.117680222185694</v>
@@ -815,7 +3780,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="4" s="1" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0.0349922216494408</v>
@@ -873,7 +3838,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="5" s="1" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.0526254797770657</v>
@@ -931,7 +3896,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="6" s="1" spans="1:20">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0.2373226383109</v>
@@ -989,7 +3954,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="7" s="1" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.0895438973225449</v>
@@ -1047,7 +4012,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="8" s="1" spans="1:20">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0.0556984365873401</v>
@@ -1105,7 +4070,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="9" s="1" spans="1:20">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0.09728735016583499</v>
@@ -1163,7 +4128,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="10" s="1" spans="1:20">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0.086309683545292</v>
@@ -1221,7 +4186,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="11" s="1" spans="1:20">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.455419363375891</v>
@@ -1279,7 +4244,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="12" s="1" spans="1:20">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.155352041119733</v>
@@ -1337,7 +4302,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="13" s="1" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0.0555603960034313</v>
@@ -1395,7 +4360,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="14" s="1" spans="1:20">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0.100695142723597</v>
@@ -1453,7 +4418,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="15" s="1" spans="1:20">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>0.0357320880225828</v>
@@ -1511,7 +4476,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="16" s="1" spans="1:20">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>0.0326101356273714</v>
@@ -1569,7 +4534,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="17" s="1" spans="1:20">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0.0882102097064475</v>
@@ -1627,7 +4592,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="18" s="1" spans="1:20">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.0791730190942205</v>
@@ -1685,7 +4650,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="19" s="1" spans="1:20">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.0331926433835382</v>
@@ -1743,7 +4708,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="20" s="1" spans="1:20">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>0.175312388131232</v>
@@ -1801,7 +4766,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="21" s="1" spans="1:20">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>0.102056849292517</v>
@@ -1859,7 +4824,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="22" s="1" spans="1:20">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>0.06792514933411779</v>
@@ -1917,7 +4882,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="23" s="1" spans="1:20">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0.991797370133105</v>
@@ -1975,7 +4940,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="24" s="1" spans="1:20">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>0.684919621587349</v>
@@ -2033,7 +4998,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="25" s="1" spans="1:20">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>0.215417835390912</v>
@@ -2091,7 +5056,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="26" s="1" spans="1:20">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>0.367644560610751</v>
@@ -2149,7 +5114,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="27" s="1" spans="1:20">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>0.348196328367065</v>
@@ -2207,7 +5172,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="28" s="1" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>0.756784664860123</v>
@@ -2265,7 +5230,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="29" s="1" spans="1:20">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>0.827007222340928</v>
@@ -2323,7 +5288,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="30" s="1" spans="1:20">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>0.928864611871131</v>
@@ -2381,7 +5346,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="31" s="1" spans="1:20">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>0.787915945966388</v>
@@ -2439,7 +5404,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="32" s="1" spans="1:20">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>0.458712206130689</v>
@@ -2497,7 +5462,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="33" s="1" spans="1:20">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0.923420726300442</v>
@@ -2555,7 +5520,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="34" s="1" spans="1:20">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>0.819319052112418</v>
@@ -2613,7 +5578,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="35" s="1" spans="1:20">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>0.7619262079935309</v>
@@ -2671,7 +5636,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="36" s="1" spans="1:20">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>0.539486170338953</v>
@@ -2729,7 +5694,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="37" s="1" spans="1:20">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>0.881761419602623</v>
@@ -2787,7 +5752,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="38" s="1" spans="1:20">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>0.0552225057170562</v>
@@ -2845,7 +5810,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="39" s="1" spans="1:20">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>0.127218869006716</v>
@@ -2903,7 +5868,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="40" s="1" spans="1:20">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>0.08772295611351059</v>
@@ -2961,7 +5926,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="41" s="1" spans="1:20">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>0.0721714630566217</v>
@@ -3019,7 +5984,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="42" s="1" spans="1:20">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>0.593874396536505</v>
@@ -3077,7 +6042,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="43" s="1" spans="1:20">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>0.0624738925586859</v>
@@ -3135,7 +6100,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="44" s="1" spans="1:20">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>0.0565623891328837</v>
@@ -3193,7 +6158,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="45" s="1" spans="1:20">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>0.201391239955721</v>
@@ -3251,7 +6216,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="46" s="1" spans="1:20">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>0.0755462193117131</v>
@@ -3309,7 +6274,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="47" s="1" spans="1:20">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>0.0428377592930522</v>
@@ -3367,7 +6332,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="48" s="1" spans="1:20">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>0.07166437956323921</v>
@@ -3425,7 +6390,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="49" s="1" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>0.0645415650344088</v>
@@ -3483,7 +6448,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="50" s="1" spans="1:20">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>0.0552034074544455</v>
@@ -3541,7 +6506,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="51" s="1" spans="1:20">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>0.191009047328739</v>
@@ -3599,7 +6564,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="52" s="1" spans="1:20">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>0.0840932366786505</v>
@@ -3657,7 +6622,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="53" s="1" spans="1:20">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>0.0567901646793317</v>
@@ -3715,7 +6680,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="54" s="1" spans="1:20">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>0.07991939744157001</v>
@@ -3773,7 +6738,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="55" s="1" spans="1:20">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>0.336854406390639</v>
@@ -3831,7 +6796,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="56" s="1" spans="1:20">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>0.21124546674377</v>
@@ -3889,7 +6854,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="57" s="1" spans="1:20">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>0.720456447262156</v>
@@ -3947,7 +6912,7 @@
     </row>
     <row customHeight="1" ht="13.9" r="58" s="1" spans="1:20">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>0.187605853710279</v>
@@ -4009,7 +6974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4017,8 +6982,8 @@
   </sheetPr>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -4052,53 +7017,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="S1" s="2" t="n"/>
       <c r="T1" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="2" s="1" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>0.1177564864</v>
@@ -4156,7 +7121,7 @@
     </row>
     <row customHeight="1" ht="15" r="3" s="1" spans="1:20">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.1295965518</v>
@@ -4214,7 +7179,7 @@
     </row>
     <row customHeight="1" ht="15" r="4" s="1" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0.05937719333</v>
@@ -4272,7 +7237,7 @@
     </row>
     <row customHeight="1" ht="15" r="5" s="1" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.0477321649</v>
@@ -4330,7 +7295,7 @@
     </row>
     <row customHeight="1" ht="15" r="6" s="1" spans="1:20">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0.2906153905</v>
@@ -4388,7 +7353,7 @@
     </row>
     <row customHeight="1" ht="15" r="7" s="1" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.1533849992</v>
@@ -4446,7 +7411,7 @@
     </row>
     <row customHeight="1" ht="15" r="8" s="1" spans="1:20">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0.1046111838</v>
@@ -4504,7 +7469,7 @@
     </row>
     <row customHeight="1" ht="15" r="9" s="1" spans="1:20">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0.1187769229</v>
@@ -4562,7 +7527,7 @@
     </row>
     <row customHeight="1" ht="15" r="10" s="1" spans="1:20">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0.1580973882</v>
@@ -4620,7 +7585,7 @@
     </row>
     <row customHeight="1" ht="15" r="11" s="1" spans="1:20">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.4929971372</v>
@@ -4678,7 +7643,7 @@
     </row>
     <row customHeight="1" ht="15" r="12" s="1" spans="1:20">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.1629042354</v>
@@ -4736,7 +7701,7 @@
     </row>
     <row customHeight="1" ht="15" r="13" s="1" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0.1254664971</v>
@@ -4794,7 +7759,7 @@
     </row>
     <row customHeight="1" ht="15" r="14" s="1" spans="1:20">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0.1657061294</v>
@@ -4852,7 +7817,7 @@
     </row>
     <row customHeight="1" ht="15" r="15" s="1" spans="1:20">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>0.0301064691</v>
@@ -4910,7 +7875,7 @@
     </row>
     <row customHeight="1" ht="15" r="16" s="1" spans="1:20">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>0.07355862117</v>
@@ -4968,7 +7933,7 @@
     </row>
     <row customHeight="1" ht="15" r="17" s="1" spans="1:20">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0.1364071759</v>
@@ -5026,7 +7991,7 @@
     </row>
     <row customHeight="1" ht="15" r="18" s="1" spans="1:20">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.1446283074</v>
@@ -5084,7 +8049,7 @@
     </row>
     <row customHeight="1" ht="15" r="19" s="1" spans="1:20">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.1059000336</v>
@@ -5142,7 +8107,7 @@
     </row>
     <row customHeight="1" ht="15" r="20" s="1" spans="1:20">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>0.2330028954</v>
@@ -5200,7 +8165,7 @@
     </row>
     <row customHeight="1" ht="15" r="21" s="1" spans="1:20">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>0.1844373847</v>
@@ -5258,7 +8223,7 @@
     </row>
     <row customHeight="1" ht="15" r="22" s="1" spans="1:20">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>0.1314826884</v>
@@ -5316,7 +8281,7 @@
     </row>
     <row customHeight="1" ht="15" r="23" s="1" spans="1:20">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0.9975469388</v>
@@ -5374,7 +8339,7 @@
     </row>
     <row customHeight="1" ht="15" r="24" s="1" spans="1:20">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>0.7785526308</v>
@@ -5432,7 +8397,7 @@
     </row>
     <row customHeight="1" ht="15" r="25" s="1" spans="1:20">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>0.2745697552</v>
@@ -5490,7 +8455,7 @@
     </row>
     <row customHeight="1" ht="15" r="26" s="1" spans="1:20">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>0.5615611823</v>
@@ -5548,7 +8513,7 @@
     </row>
     <row customHeight="1" ht="15" r="27" s="1" spans="1:20">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>0.5063095348</v>
@@ -5606,7 +8571,7 @@
     </row>
     <row customHeight="1" ht="15" r="28" s="1" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>0.8501990563</v>
@@ -5664,7 +8629,7 @@
     </row>
     <row customHeight="1" ht="15" r="29" s="1" spans="1:20">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>0.8707611545</v>
@@ -5722,7 +8687,7 @@
     </row>
     <row customHeight="1" ht="15" r="30" s="1" spans="1:20">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>0.9819134197</v>
@@ -5780,7 +8745,7 @@
     </row>
     <row customHeight="1" ht="15" r="31" s="1" spans="1:20">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>0.9461564902</v>
@@ -5838,7 +8803,7 @@
     </row>
     <row customHeight="1" ht="15" r="32" s="1" spans="1:20">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>0.5713990427</v>
@@ -5896,7 +8861,7 @@
     </row>
     <row customHeight="1" ht="15" r="33" s="1" spans="1:20">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0.972867355</v>
@@ -5954,7 +8919,7 @@
     </row>
     <row customHeight="1" ht="15" r="34" s="1" spans="1:20">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>0.8887874174</v>
@@ -6012,7 +8977,7 @@
     </row>
     <row customHeight="1" ht="15" r="35" s="1" spans="1:20">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>0.834944603</v>
@@ -6070,7 +9035,7 @@
     </row>
     <row customHeight="1" ht="15" r="36" s="1" spans="1:20">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>0.6750498793</v>
@@ -6128,7 +9093,7 @@
     </row>
     <row customHeight="1" ht="15" r="37" s="1" spans="1:20">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>0.9236439746</v>
@@ -6186,7 +9151,7 @@
     </row>
     <row customHeight="1" ht="15" r="38" s="1" spans="1:20">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>0.08185698407</v>
@@ -6244,7 +9209,7 @@
     </row>
     <row customHeight="1" ht="15" r="39" s="1" spans="1:20">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>0.1524291052</v>
@@ -6302,7 +9267,7 @@
     </row>
     <row customHeight="1" ht="15" r="40" s="1" spans="1:20">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>0.1276092839</v>
@@ -6360,7 +9325,7 @@
     </row>
     <row customHeight="1" ht="15" r="41" s="1" spans="1:20">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>0.09826220239</v>
@@ -6418,7 +9383,7 @@
     </row>
     <row customHeight="1" ht="15" r="42" s="1" spans="1:20">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>0.7709722020000001</v>
@@ -6476,7 +9441,7 @@
     </row>
     <row customHeight="1" ht="15" r="43" s="1" spans="1:20">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>0.07425265188000001</v>
@@ -6534,7 +9499,7 @@
     </row>
     <row customHeight="1" ht="15" r="44" s="1" spans="1:20">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>0.1168722003</v>
@@ -6592,7 +9557,7 @@
     </row>
     <row customHeight="1" ht="15" r="45" s="1" spans="1:20">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>0.2282080186</v>
@@ -6650,7 +9615,7 @@
     </row>
     <row customHeight="1" ht="15" r="46" s="1" spans="1:20">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>0.09152901434000001</v>
@@ -6708,7 +9673,7 @@
     </row>
     <row customHeight="1" ht="15" r="47" s="1" spans="1:20">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>0.09038854896</v>
@@ -6766,7 +9731,7 @@
     </row>
     <row customHeight="1" ht="15" r="48" s="1" spans="1:20">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>0.1468535704</v>
@@ -6824,7 +9789,7 @@
     </row>
     <row customHeight="1" ht="15" r="49" s="1" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>0.07520457236</v>
@@ -6882,7 +9847,7 @@
     </row>
     <row customHeight="1" ht="15" r="50" s="1" spans="1:20">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>0.1104965212</v>
@@ -6940,7 +9905,7 @@
     </row>
     <row customHeight="1" ht="15" r="51" s="1" spans="1:20">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>0.2159043889</v>
@@ -6998,7 +9963,7 @@
     </row>
     <row customHeight="1" ht="15" r="52" s="1" spans="1:20">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>0.1274937937</v>
@@ -7056,7 +10021,7 @@
     </row>
     <row customHeight="1" ht="15" r="53" s="1" spans="1:20">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>0.1158274421</v>
@@ -7114,7 +10079,7 @@
     </row>
     <row customHeight="1" ht="15" r="54" s="1" spans="1:20">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>0.1048414287</v>
@@ -7172,7 +10137,7 @@
     </row>
     <row customHeight="1" ht="15" r="55" s="1" spans="1:20">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>0.3814890418</v>
@@ -7230,7 +10195,7 @@
     </row>
     <row customHeight="1" ht="15" r="56" s="1" spans="1:20">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>0.2574562702</v>
@@ -7288,7 +10253,7 @@
     </row>
     <row customHeight="1" ht="15" r="57" s="1" spans="1:20">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>0.902123707</v>
@@ -7346,7 +10311,7 @@
     </row>
     <row customHeight="1" ht="15" r="58" s="1" spans="1:20">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>0.2257776616</v>
